--- a/BackTest/2019-10-15 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-15 BackTest LOOM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>24.99999999999989</v>
+      </c>
       <c r="L12" t="n">
         <v>29.07999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>66.66666666666627</v>
+      </c>
       <c r="L13" t="n">
         <v>29.09999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>59.99999999999972</v>
+      </c>
       <c r="L14" t="n">
         <v>29.13999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>49.99999999999956</v>
+      </c>
       <c r="L15" t="n">
         <v>29.16999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>66.66666666666627</v>
+      </c>
       <c r="L16" t="n">
         <v>29.20999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>14.285714285714</v>
+      </c>
       <c r="L17" t="n">
         <v>29.22999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>29.23999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-20.00000000000028</v>
+      </c>
       <c r="L19" t="n">
         <v>29.23999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-20.00000000000028</v>
+      </c>
       <c r="L20" t="n">
         <v>29.22999999999998</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.5</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>20.00000000000028</v>
+      </c>
       <c r="L21" t="n">
         <v>29.22999999999998</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.5</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20.00000000000028</v>
+      </c>
       <c r="L22" t="n">
         <v>29.23999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.5</v>
       </c>
       <c r="K23" t="n">
-        <v>23.07692307692312</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L23" t="n">
         <v>29.24999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>1.699999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>53.84615384615377</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L24" t="n">
         <v>29.27999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>1.800000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>38.46153846153834</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>29.29999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>23.07692307692312</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L26" t="n">
         <v>29.28999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>1.999999999999996</v>
       </c>
       <c r="K27" t="n">
-        <v>28.5714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>29.30999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>1.999999999999996</v>
       </c>
       <c r="K28" t="n">
-        <v>23.07692307692291</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>29.32999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>2.499999999999996</v>
       </c>
       <c r="K31" t="n">
-        <v>12.49999999999997</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>29.35999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>2.499999999999996</v>
       </c>
       <c r="K32" t="n">
-        <v>20.0000000000001</v>
+        <v>20</v>
       </c>
       <c r="L32" t="n">
         <v>29.37999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>2.599999999999998</v>
       </c>
       <c r="K33" t="n">
-        <v>12.49999999999997</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L33" t="n">
         <v>29.38999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>2.599999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>12.49999999999997</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>29.37999999999998</v>
@@ -2013,7 +2035,7 @@
         <v>2.799999999999997</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L35" t="n">
         <v>29.35999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>2.899999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>-5.882352941176348</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L36" t="n">
         <v>29.35999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>2.899999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>6.666666666666761</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L37" t="n">
         <v>29.34999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>2.899999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>6.666666666666761</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L38" t="n">
         <v>29.33999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L39" t="n">
         <v>29.33999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L40" t="n">
         <v>29.32999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.666666666666761</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L41" t="n">
         <v>29.29999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>3.099999999999998</v>
       </c>
       <c r="K42" t="n">
-        <v>-12.49999999999997</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L42" t="n">
         <v>29.25999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>3.099999999999998</v>
       </c>
       <c r="K43" t="n">
-        <v>-12.49999999999997</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L43" t="n">
         <v>29.23</v>
@@ -2472,7 +2494,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-37.50000000000006</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L44" t="n">
         <v>29.18</v>
@@ -2523,7 +2545,7 @@
         <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>-41.17647058823527</v>
+        <v>-100</v>
       </c>
       <c r="L45" t="n">
         <v>29.13</v>
@@ -2574,7 +2596,7 @@
         <v>3.5</v>
       </c>
       <c r="K46" t="n">
-        <v>-37.50000000000006</v>
+        <v>-100</v>
       </c>
       <c r="L46" t="n">
         <v>29.06999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>3.599999999999998</v>
       </c>
       <c r="K47" t="n">
-        <v>-49.99999999999978</v>
+        <v>-100</v>
       </c>
       <c r="L47" t="n">
         <v>28.99999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>3.899999999999995</v>
       </c>
       <c r="K48" t="n">
-        <v>-26.31578947368423</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L48" t="n">
         <v>28.95999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>3.899999999999995</v>
       </c>
       <c r="K49" t="n">
-        <v>-17.64705882352946</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L49" t="n">
         <v>28.92999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K50" t="n">
-        <v>-33.33333333333346</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L50" t="n">
         <v>28.87999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K51" t="n">
-        <v>-50.00000000000011</v>
+        <v>-40.00000000000036</v>
       </c>
       <c r="L51" t="n">
         <v>28.82999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K52" t="n">
-        <v>-50.00000000000011</v>
+        <v>-40.00000000000036</v>
       </c>
       <c r="L52" t="n">
         <v>28.78999999999998</v>
@@ -2931,7 +2953,7 @@
         <v>4.299999999999994</v>
       </c>
       <c r="K53" t="n">
-        <v>-52.94117647058828</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L53" t="n">
         <v>28.72999999999998</v>
@@ -2982,7 +3004,7 @@
         <v>4.399999999999995</v>
       </c>
       <c r="K54" t="n">
-        <v>-44.44444444444436</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L54" t="n">
         <v>28.69999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>4.399999999999995</v>
       </c>
       <c r="K55" t="n">
-        <v>-37.49999999999991</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L55" t="n">
         <v>28.68999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>4.499999999999993</v>
       </c>
       <c r="K56" t="n">
-        <v>-37.50000000000022</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L56" t="n">
         <v>28.68999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>4.499999999999993</v>
       </c>
       <c r="K57" t="n">
-        <v>-37.50000000000022</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>28.69999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>4.499999999999993</v>
       </c>
       <c r="K58" t="n">
-        <v>-37.50000000000022</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>28.67999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>4.499999999999993</v>
       </c>
       <c r="K59" t="n">
-        <v>-33.33333333333349</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>28.65999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>4.599999999999991</v>
       </c>
       <c r="K60" t="n">
-        <v>-37.50000000000009</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L60" t="n">
         <v>28.65</v>
@@ -3339,7 +3361,7 @@
         <v>4.79999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>-22.22222222222226</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L61" t="n">
         <v>28.66</v>
@@ -3390,7 +3412,7 @@
         <v>5.099999999999991</v>
       </c>
       <c r="K62" t="n">
-        <v>-30.00000000000018</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>28.64</v>
@@ -3441,7 +3463,7 @@
         <v>5.29999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>-18.18181818181834</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L63" t="n">
         <v>28.66</v>
@@ -3492,7 +3514,7 @@
         <v>5.399999999999991</v>
       </c>
       <c r="K64" t="n">
-        <v>-4.761904761904681</v>
+        <v>20</v>
       </c>
       <c r="L64" t="n">
         <v>28.68</v>
@@ -3543,7 +3565,7 @@
         <v>5.399999999999991</v>
       </c>
       <c r="K65" t="n">
-        <v>5.26315789473694</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L65" t="n">
         <v>28.7</v>
@@ -3645,7 +3667,7 @@
         <v>5.599999999999994</v>
       </c>
       <c r="K67" t="n">
-        <v>9.999999999999982</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L67" t="n">
         <v>28.71</v>
@@ -3696,7 +3718,7 @@
         <v>5.699999999999992</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L68" t="n">
         <v>28.73</v>
@@ -3747,7 +3769,7 @@
         <v>5.699999999999992</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>27.27272727272697</v>
       </c>
       <c r="L69" t="n">
         <v>28.74999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>5.699999999999992</v>
       </c>
       <c r="K70" t="n">
-        <v>12.49999999999997</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L70" t="n">
         <v>28.77999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>5.699999999999992</v>
       </c>
       <c r="K71" t="n">
-        <v>12.49999999999997</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L71" t="n">
         <v>28.78999999999998</v>
@@ -3900,7 +3922,7 @@
         <v>5.699999999999992</v>
       </c>
       <c r="K72" t="n">
-        <v>12.49999999999997</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L72" t="n">
         <v>28.82999999999998</v>
@@ -3951,7 +3973,7 @@
         <v>5.899999999999991</v>
       </c>
       <c r="K73" t="n">
-        <v>12.49999999999997</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L73" t="n">
         <v>28.82999999999998</v>
@@ -4002,7 +4024,7 @@
         <v>6.199999999999992</v>
       </c>
       <c r="K74" t="n">
-        <v>22.22222222222218</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L74" t="n">
         <v>28.84999999999998</v>
@@ -4053,7 +4075,7 @@
         <v>6.299999999999994</v>
       </c>
       <c r="K75" t="n">
-        <v>26.31578947368423</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L75" t="n">
         <v>28.87999999999998</v>
@@ -4104,7 +4126,7 @@
         <v>6.299999999999994</v>
       </c>
       <c r="K76" t="n">
-        <v>22.22222222222233</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L76" t="n">
         <v>28.91999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>6.299999999999994</v>
       </c>
       <c r="K77" t="n">
-        <v>22.22222222222233</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L77" t="n">
         <v>28.94999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>6.499999999999996</v>
       </c>
       <c r="K78" t="n">
-        <v>9.999999999999947</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>28.94999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>6.699999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>18.18181818181823</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L79" t="n">
         <v>28.96999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="K80" t="n">
-        <v>27.2727272727271</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L80" t="n">
         <v>28.99999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K81" t="n">
-        <v>30.43478260869551</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L81" t="n">
         <v>29.06</v>
@@ -4410,7 +4432,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>30.43478260869551</v>
+        <v>33.33333333333318</v>
       </c>
       <c r="L82" t="n">
         <v>29.09</v>
@@ -4461,7 +4483,7 @@
         <v>7.5</v>
       </c>
       <c r="K83" t="n">
-        <v>27.27272727272722</v>
+        <v>23.07692307692299</v>
       </c>
       <c r="L83" t="n">
         <v>29.15</v>
@@ -4512,7 +4534,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>8.333333333333272</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L84" t="n">
         <v>29.15</v>
@@ -4563,7 +4585,7 @@
         <v>7.900000000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>11.99999999999998</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>29.15</v>
@@ -4614,7 +4636,7 @@
         <v>8</v>
       </c>
       <c r="K86" t="n">
-        <v>19.99999999999994</v>
+        <v>5.882352941176324</v>
       </c>
       <c r="L86" t="n">
         <v>29.16</v>
@@ -4665,7 +4687,7 @@
         <v>8</v>
       </c>
       <c r="K87" t="n">
-        <v>16.66666666666657</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
         <v>29.16999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>8</v>
       </c>
       <c r="K88" t="n">
-        <v>13.04347826086955</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L88" t="n">
         <v>29.2</v>
@@ -4767,7 +4789,7 @@
         <v>8</v>
       </c>
       <c r="K89" t="n">
-        <v>13.04347826086955</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>29.20999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>8</v>
       </c>
       <c r="K90" t="n">
-        <v>13.04347826086955</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>29.20999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>8</v>
       </c>
       <c r="K91" t="n">
-        <v>13.04347826086955</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>29.17999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>8.099999999999998</v>
       </c>
       <c r="K92" t="n">
-        <v>8.333333333333432</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>29.16999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>8.099999999999998</v>
       </c>
       <c r="K93" t="n">
-        <v>18.18181818181823</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L93" t="n">
         <v>29.15</v>
@@ -5022,7 +5044,7 @@
         <v>8.099999999999998</v>
       </c>
       <c r="K94" t="n">
-        <v>5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>29.16</v>
@@ -5073,7 +5095,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>-10.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L95" t="n">
         <v>29.13999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>8.600000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>4.347826086956414</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>29.13999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L97" t="n">
         <v>29.13</v>
@@ -5226,7 +5248,7 @@
         <v>8.900000000000002</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>29.09999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>8.900000000000002</v>
       </c>
       <c r="K99" t="n">
-        <v>-9.090909090909207</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>29.06999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>9.000000000000004</v>
       </c>
       <c r="K100" t="n">
-        <v>-9.090909090909033</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L100" t="n">
         <v>29.04999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>9.000000000000004</v>
       </c>
       <c r="K101" t="n">
-        <v>-26.31578947368413</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L101" t="n">
         <v>29.02999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>9.100000000000005</v>
       </c>
       <c r="K102" t="n">
-        <v>-5.882352941176324</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>29.02999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>9.100000000000005</v>
       </c>
       <c r="K103" t="n">
-        <v>-12.49999999999992</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>29.02999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>9.200000000000006</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L104" t="n">
         <v>29.01999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>9.400000000000006</v>
       </c>
       <c r="K105" t="n">
-        <v>6.666666666666508</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>29.04999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K106" t="n">
-        <v>6.66666666666673</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L106" t="n">
         <v>29.06</v>
@@ -5685,7 +5707,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K107" t="n">
-        <v>6.66666666666673</v>
+        <v>66.66666666666647</v>
       </c>
       <c r="L107" t="n">
         <v>29.07999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K108" t="n">
-        <v>6.66666666666673</v>
+        <v>66.66666666666647</v>
       </c>
       <c r="L108" t="n">
         <v>29.12</v>
@@ -5787,7 +5809,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K109" t="n">
-        <v>6.66666666666673</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L109" t="n">
         <v>29.16</v>
@@ -5838,7 +5860,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K110" t="n">
-        <v>6.66666666666673</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L110" t="n">
         <v>29.19</v>
@@ -5889,7 +5911,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K111" t="n">
-        <v>6.66666666666673</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L111" t="n">
         <v>29.22000000000001</v>
@@ -5940,7 +5962,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K112" t="n">
-        <v>14.28571428571414</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L112" t="n">
         <v>29.24</v>
@@ -5991,7 +6013,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K113" t="n">
-        <v>14.28571428571414</v>
+        <v>100</v>
       </c>
       <c r="L113" t="n">
         <v>29.26</v>
@@ -6042,7 +6064,7 @@
         <v>9.700000000000006</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L114" t="n">
         <v>29.27</v>
@@ -6093,7 +6115,7 @@
         <v>9.900000000000006</v>
       </c>
       <c r="K115" t="n">
-        <v>25.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>29.28000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>10</v>
       </c>
       <c r="K116" t="n">
-        <v>14.28571428571421</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L116" t="n">
         <v>29.29</v>
@@ -6195,7 +6217,7 @@
         <v>10.3</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L117" t="n">
         <v>29.27</v>
@@ -6246,7 +6268,7 @@
         <v>10.4</v>
       </c>
       <c r="K118" t="n">
-        <v>6.666666666666761</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L118" t="n">
         <v>29.24</v>
@@ -6297,7 +6319,7 @@
         <v>10.4</v>
       </c>
       <c r="K119" t="n">
-        <v>6.666666666666761</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L119" t="n">
         <v>29.21</v>
@@ -6348,7 +6370,7 @@
         <v>10.7</v>
       </c>
       <c r="K120" t="n">
-        <v>-17.64705882352946</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L120" t="n">
         <v>29.15</v>
@@ -6399,7 +6421,7 @@
         <v>11</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L121" t="n">
         <v>29.12</v>
@@ -6450,7 +6472,7 @@
         <v>11.3</v>
       </c>
       <c r="K122" t="n">
-        <v>-18.18181818181829</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L122" t="n">
         <v>29.06</v>
@@ -6501,7 +6523,7 @@
         <v>11.4</v>
       </c>
       <c r="K123" t="n">
-        <v>-21.73913043478263</v>
+        <v>-29.41176470588243</v>
       </c>
       <c r="L123" t="n">
         <v>28.99</v>
@@ -6552,7 +6574,7 @@
         <v>11.7</v>
       </c>
       <c r="K124" t="n">
-        <v>-4.000000000000068</v>
+        <v>-22.22222222222242</v>
       </c>
       <c r="L124" t="n">
         <v>28.96999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>11.8</v>
       </c>
       <c r="K125" t="n">
-        <v>-8.33333333333332</v>
+        <v>-22.22222222222218</v>
       </c>
       <c r="L125" t="n">
         <v>28.93999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>12</v>
       </c>
       <c r="K126" t="n">
-        <v>-20.00000000000006</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="L126" t="n">
         <v>28.88</v>
@@ -6705,7 +6727,7 @@
         <v>12.2</v>
       </c>
       <c r="K127" t="n">
-        <v>-11.11111111111117</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>28.86999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>12.6</v>
       </c>
       <c r="K128" t="n">
-        <v>-22.58064516129037</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L128" t="n">
         <v>28.82999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>12.9</v>
       </c>
       <c r="K129" t="n">
-        <v>-11.76470588235305</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L129" t="n">
         <v>28.81999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>-16.66666666666677</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L130" t="n">
         <v>28.81999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>-16.66666666666677</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>28.78999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>13.2</v>
       </c>
       <c r="K132" t="n">
-        <v>-13.51351351351356</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L132" t="n">
         <v>28.79999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>13.2</v>
       </c>
       <c r="K133" t="n">
-        <v>-13.51351351351356</v>
+        <v>-6.66666666666654</v>
       </c>
       <c r="L133" t="n">
         <v>28.81999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>-5.555555555555655</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L134" t="n">
         <v>28.81999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>13.39999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>-14.28571428571434</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>28.79999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>-20.00000000000004</v>
+        <v>-23.07692307692324</v>
       </c>
       <c r="L136" t="n">
         <v>28.78999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>-12.5000000000001</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L137" t="n">
         <v>28.75999999999999</v>
@@ -7266,7 +7288,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>-9.677419354838761</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>28.76999999999999</v>
@@ -7317,7 +7339,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>-9.677419354838761</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>28.74999999999999</v>
@@ -7368,7 +7390,7 @@
         <v>13.69999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L140" t="n">
         <v>28.76999999999999</v>
@@ -7419,7 +7441,7 @@
         <v>13.69999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>-3.703703703703772</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L141" t="n">
         <v>28.78999999999998</v>
@@ -7470,7 +7492,7 @@
         <v>13.89999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L142" t="n">
         <v>28.77999999999998</v>
@@ -7521,7 +7543,7 @@
         <v>14.19999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L143" t="n">
         <v>28.79999999999998</v>
@@ -7572,7 +7594,7 @@
         <v>14.29999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L144" t="n">
         <v>28.79999999999998</v>
@@ -7623,7 +7645,7 @@
         <v>14.29999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>-4.000000000000068</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L145" t="n">
         <v>28.80999999999998</v>
@@ -7674,7 +7696,7 @@
         <v>14.49999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>-4.000000000000068</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>28.80999999999998</v>
@@ -7725,7 +7747,7 @@
         <v>14.79999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L147" t="n">
         <v>28.83999999999998</v>
@@ -7776,7 +7798,7 @@
         <v>14.9</v>
       </c>
       <c r="K148" t="n">
-        <v>21.73913043478263</v>
+        <v>28.57142857142868</v>
       </c>
       <c r="L148" t="n">
         <v>28.87999999999998</v>
@@ -7827,7 +7849,7 @@
         <v>14.9</v>
       </c>
       <c r="K149" t="n">
-        <v>10.00000000000014</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L149" t="n">
         <v>28.91999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K150" t="n">
-        <v>26.31578947368423</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L150" t="n">
         <v>28.94999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>26.31578947368423</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L151" t="n">
         <v>28.97999999999999</v>
@@ -7980,7 +8002,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>26.31578947368423</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>29.03999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>26.31578947368423</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L153" t="n">
         <v>29.06999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>15.2</v>
       </c>
       <c r="K154" t="n">
-        <v>15.78947368421055</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>29.09999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>15.2</v>
       </c>
       <c r="K155" t="n">
-        <v>22.22222222222209</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L155" t="n">
         <v>29.13</v>
@@ -8184,7 +8206,7 @@
         <v>15.2</v>
       </c>
       <c r="K156" t="n">
-        <v>29.41176470588231</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L156" t="n">
         <v>29.18</v>
@@ -8235,7 +8257,7 @@
         <v>15.2</v>
       </c>
       <c r="K157" t="n">
-        <v>29.41176470588231</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L157" t="n">
         <v>29.2</v>
@@ -8286,7 +8308,7 @@
         <v>15.2</v>
       </c>
       <c r="K158" t="n">
-        <v>29.41176470588231</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L158" t="n">
         <v>29.20999999999999</v>
@@ -8337,7 +8359,7 @@
         <v>15.2</v>
       </c>
       <c r="K159" t="n">
-        <v>29.41176470588231</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>29.21999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>15.2</v>
       </c>
       <c r="K160" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>29.21999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>15.2</v>
       </c>
       <c r="K161" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L161" t="n">
         <v>29.21999999999999</v>
@@ -8490,7 +8512,7 @@
         <v>15.2</v>
       </c>
       <c r="K162" t="n">
-        <v>38.46153846153834</v>
+        <v>-100</v>
       </c>
       <c r="L162" t="n">
         <v>29.20999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>15.29999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>9.090909090909207</v>
+        <v>-100</v>
       </c>
       <c r="L163" t="n">
         <v>29.18999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>15.29999999999999</v>
       </c>
       <c r="K164" t="n">
-        <v>20.00000000000028</v>
+        <v>-100</v>
       </c>
       <c r="L164" t="n">
         <v>29.17999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>15.29999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>20.00000000000028</v>
+        <v>-100</v>
       </c>
       <c r="L165" t="n">
         <v>29.16999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>15.39999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>55.55555555555565</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>29.16999999999999</v>
@@ -8745,7 +8767,7 @@
         <v>15.49999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>14.28571428571458</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>29.16</v>
@@ -8796,7 +8818,7 @@
         <v>15.69999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>25.00000000000011</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L168" t="n">
         <v>29.17</v>
@@ -8847,7 +8869,7 @@
         <v>15.69999999999999</v>
       </c>
       <c r="K169" t="n">
-        <v>25.00000000000011</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L169" t="n">
         <v>29.18</v>
@@ -8898,7 +8920,7 @@
         <v>15.69999999999999</v>
       </c>
       <c r="K170" t="n">
-        <v>14.28571428571458</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L170" t="n">
         <v>29.19</v>
@@ -8949,7 +8971,7 @@
         <v>15.69999999999999</v>
       </c>
       <c r="K171" t="n">
-        <v>14.28571428571458</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L171" t="n">
         <v>29.20000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>15.69999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L172" t="n">
         <v>29.21000000000001</v>
@@ -9051,7 +9073,7 @@
         <v>15.69999999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L173" t="n">
         <v>29.23000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>15.79999999999999</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L174" t="n">
         <v>29.24</v>
@@ -9153,7 +9175,7 @@
         <v>15.89999999999999</v>
       </c>
       <c r="K175" t="n">
-        <v>14.28571428571458</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L175" t="n">
         <v>29.26</v>
@@ -9204,7 +9226,7 @@
         <v>15.89999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>14.28571428571458</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L176" t="n">
         <v>29.27</v>
@@ -9255,7 +9277,7 @@
         <v>15.89999999999999</v>
       </c>
       <c r="K177" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>29.29</v>
@@ -9306,7 +9328,7 @@
         <v>15.89999999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>29.29</v>
@@ -9357,7 +9379,7 @@
         <v>15.89999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>29.29</v>
@@ -9408,7 +9430,7 @@
         <v>15.89999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>29.29</v>
@@ -9459,7 +9481,7 @@
         <v>15.89999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>29.29</v>
@@ -9510,7 +9532,7 @@
         <v>15.99999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>29.28</v>
@@ -9561,7 +9583,7 @@
         <v>15.99999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>29.27</v>
@@ -9612,7 +9634,7 @@
         <v>16.09999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L184" t="n">
         <v>29.26</v>
@@ -9663,7 +9685,7 @@
         <v>16.09999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L185" t="n">
         <v>29.24</v>
@@ -9714,7 +9736,7 @@
         <v>16.19999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L186" t="n">
         <v>29.23</v>
@@ -9765,7 +9787,7 @@
         <v>16.19999999999999</v>
       </c>
       <c r="K187" t="n">
-        <v>14.285714285714</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L187" t="n">
         <v>29.22</v>
@@ -9816,7 +9838,7 @@
         <v>16.29999999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L188" t="n">
         <v>29.2</v>
@@ -9867,7 +9889,7 @@
         <v>16.39999999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>-42.857142857143</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L189" t="n">
         <v>29.17</v>
@@ -9918,7 +9940,7 @@
         <v>16.49999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>-24.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>29.15</v>
@@ -9969,7 +9991,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>29.14</v>
@@ -10020,7 +10042,7 @@
         <v>16.69999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>-20</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L192" t="n">
         <v>29.13</v>
@@ -10071,7 +10093,7 @@
         <v>16.79999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>-9.090909090909268</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L193" t="n">
         <v>29.13</v>
@@ -10122,7 +10144,7 @@
         <v>16.79999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L194" t="n">
         <v>29.14</v>
@@ -10173,7 +10195,7 @@
         <v>16.79999999999998</v>
       </c>
       <c r="K195" t="n">
-        <v>-11.11111111111137</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>29.15</v>
@@ -10224,7 +10246,7 @@
         <v>16.89999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>-20.00000000000014</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L196" t="n">
         <v>29.14</v>
@@ -10275,7 +10297,7 @@
         <v>16.99999999999998</v>
       </c>
       <c r="K197" t="n">
-        <v>-9.090909090909326</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L197" t="n">
         <v>29.14</v>
@@ -10326,7 +10348,7 @@
         <v>17.09999999999998</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>42.85714285714344</v>
       </c>
       <c r="L198" t="n">
         <v>29.16</v>
@@ -10377,7 +10399,7 @@
         <v>17.09999999999998</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L199" t="n">
         <v>29.19</v>
@@ -10428,7 +10450,7 @@
         <v>17.19999999999998</v>
       </c>
       <c r="K200" t="n">
-        <v>-7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>29.2</v>
@@ -10479,7 +10501,7 @@
         <v>17.19999999999998</v>
       </c>
       <c r="K201" t="n">
-        <v>-7.69230769230786</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L201" t="n">
         <v>29.2</v>
@@ -10581,7 +10603,7 @@
         <v>17.29999999999998</v>
       </c>
       <c r="K203" t="n">
-        <v>7.69230769230786</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L203" t="n">
         <v>29.21999999999999</v>
@@ -10632,7 +10654,7 @@
         <v>17.39999999999998</v>
       </c>
       <c r="K204" t="n">
-        <v>7.692307692307566</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
         <v>29.21999999999999</v>
@@ -10785,7 +10807,7 @@
         <v>17.59999999999998</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L207" t="n">
         <v>29.21999999999999</v>
@@ -10836,7 +10858,7 @@
         <v>17.69999999999998</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>29.2</v>
@@ -10887,7 +10909,7 @@
         <v>17.89999999999998</v>
       </c>
       <c r="K209" t="n">
-        <v>-6.666666666666793</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L209" t="n">
         <v>29.15999999999999</v>
@@ -10938,7 +10960,7 @@
         <v>18.19999999999998</v>
       </c>
       <c r="K210" t="n">
-        <v>5.882352941176372</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>29.15999999999999</v>
@@ -10989,7 +11011,7 @@
         <v>18.39999999999998</v>
       </c>
       <c r="K211" t="n">
-        <v>-11.11111111111111</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L211" t="n">
         <v>29.13999999999999</v>
@@ -11040,7 +11062,7 @@
         <v>18.39999999999998</v>
       </c>
       <c r="K212" t="n">
-        <v>-5.882352941176569</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L212" t="n">
         <v>29.11999999999999</v>
@@ -11142,7 +11164,7 @@
         <v>18.69999999999998</v>
       </c>
       <c r="K214" t="n">
-        <v>-5.263157894736744</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>29.09999999999999</v>
@@ -11244,7 +11266,7 @@
         <v>18.99999999999998</v>
       </c>
       <c r="K216" t="n">
-        <v>-4.761904761904842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L216" t="n">
         <v>29.08999999999999</v>
@@ -11295,7 +11317,7 @@
         <v>19.09999999999998</v>
       </c>
       <c r="K217" t="n">
-        <v>-4.761904761904665</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>29.07999999999999</v>
@@ -11346,7 +11368,7 @@
         <v>19.09999999999998</v>
       </c>
       <c r="K218" t="n">
-        <v>-9.999999999999982</v>
+        <v>16.66666666666696</v>
       </c>
       <c r="L218" t="n">
         <v>29.07999999999999</v>
@@ -11397,7 +11419,7 @@
         <v>19.09999999999998</v>
       </c>
       <c r="K219" t="n">
-        <v>-9.999999999999982</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L219" t="n">
         <v>29.1</v>
@@ -11448,7 +11470,7 @@
         <v>19.29999999999998</v>
       </c>
       <c r="K220" t="n">
-        <v>-14.28571428571433</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L220" t="n">
         <v>29.07</v>
@@ -11499,7 +11521,7 @@
         <v>19.39999999999998</v>
       </c>
       <c r="K221" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>29.07</v>
@@ -11550,7 +11572,7 @@
         <v>19.39999999999998</v>
       </c>
       <c r="K222" t="n">
-        <v>-9.090909090909062</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L222" t="n">
         <v>29.07</v>
@@ -11601,7 +11623,7 @@
         <v>19.59999999999998</v>
       </c>
       <c r="K223" t="n">
-        <v>-21.73913043478263</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L223" t="n">
         <v>29.03</v>
@@ -11652,7 +11674,7 @@
         <v>19.69999999999998</v>
       </c>
       <c r="K224" t="n">
-        <v>-13.04347826086963</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L224" t="n">
         <v>29.01</v>
@@ -11703,7 +11725,7 @@
         <v>19.79999999999998</v>
       </c>
       <c r="K225" t="n">
-        <v>-13.04347826086963</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L225" t="n">
         <v>28.97</v>
@@ -11754,7 +11776,7 @@
         <v>19.99999999999998</v>
       </c>
       <c r="K226" t="n">
-        <v>-8.33333333333332</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L226" t="n">
         <v>28.97</v>
@@ -11805,7 +11827,7 @@
         <v>20.09999999999998</v>
       </c>
       <c r="K227" t="n">
-        <v>-3.99999999999992</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>28.97</v>
@@ -11907,7 +11929,7 @@
         <v>20.19999999999998</v>
       </c>
       <c r="K229" t="n">
-        <v>4.347826086956589</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L229" t="n">
         <v>28.96</v>
@@ -11958,7 +11980,7 @@
         <v>20.19999999999998</v>
       </c>
       <c r="K230" t="n">
-        <v>-9.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>28.97</v>
@@ -12060,7 +12082,7 @@
         <v>20.19999999999998</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L232" t="n">
         <v>28.97</v>
@@ -12111,7 +12133,7 @@
         <v>20.29999999999998</v>
       </c>
       <c r="K233" t="n">
-        <v>-5.882352941176348</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L233" t="n">
         <v>29</v>
@@ -12162,7 +12184,7 @@
         <v>20.29999999999998</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L234" t="n">
         <v>29.02</v>
@@ -12213,7 +12235,7 @@
         <v>20.39999999999998</v>
       </c>
       <c r="K235" t="n">
-        <v>-12.49999999999992</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>29.04</v>
@@ -12264,7 +12286,7 @@
         <v>20.39999999999998</v>
       </c>
       <c r="K236" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L236" t="n">
         <v>29.04</v>
@@ -12315,7 +12337,7 @@
         <v>20.69999999999998</v>
       </c>
       <c r="K237" t="n">
-        <v>-25.00000000000006</v>
+        <v>-66.66666666666647</v>
       </c>
       <c r="L237" t="n">
         <v>29</v>
@@ -12366,7 +12388,7 @@
         <v>21.09999999999998</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L238" t="n">
         <v>29</v>
@@ -12417,7 +12439,7 @@
         <v>21.39999999999998</v>
       </c>
       <c r="K239" t="n">
-        <v>-13.04347826086955</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L239" t="n">
         <v>28.98</v>
@@ -12468,7 +12490,7 @@
         <v>21.49999999999998</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L240" t="n">
         <v>28.97</v>
@@ -12519,7 +12541,7 @@
         <v>21.69999999999998</v>
       </c>
       <c r="K241" t="n">
-        <v>-13.04347826086959</v>
+        <v>-20</v>
       </c>
       <c r="L241" t="n">
         <v>28.94</v>
@@ -12570,7 +12592,7 @@
         <v>21.79999999999998</v>
       </c>
       <c r="K242" t="n">
-        <v>-16.66666666666662</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L242" t="n">
         <v>28.9</v>
@@ -12621,7 +12643,7 @@
         <v>21.89999999999998</v>
       </c>
       <c r="K243" t="n">
-        <v>-4.347826086956589</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L243" t="n">
         <v>28.86</v>
@@ -12672,7 +12694,7 @@
         <v>21.89999999999998</v>
       </c>
       <c r="K244" t="n">
-        <v>-9.090909090909062</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L244" t="n">
         <v>28.81999999999999</v>
@@ -12723,7 +12745,7 @@
         <v>21.99999999999998</v>
       </c>
       <c r="K245" t="n">
-        <v>-9.090909090909062</v>
+        <v>-25</v>
       </c>
       <c r="L245" t="n">
         <v>28.77999999999999</v>
@@ -12774,7 +12796,7 @@
         <v>22.09999999999997</v>
       </c>
       <c r="K246" t="n">
-        <v>-14.28571428571433</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>28.74999999999999</v>
@@ -12825,7 +12847,7 @@
         <v>22.09999999999997</v>
       </c>
       <c r="K247" t="n">
-        <v>-20.00000000000014</v>
+        <v>-40.00000000000064</v>
       </c>
       <c r="L247" t="n">
         <v>28.74999999999999</v>
@@ -12876,7 +12898,7 @@
         <v>22.09999999999997</v>
       </c>
       <c r="K248" t="n">
-        <v>-20.00000000000014</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L248" t="n">
         <v>28.70999999999999</v>
@@ -12927,7 +12949,7 @@
         <v>22.19999999999997</v>
       </c>
       <c r="K249" t="n">
-        <v>-20</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L249" t="n">
         <v>28.68999999999999</v>
@@ -12978,7 +13000,7 @@
         <v>22.29999999999997</v>
       </c>
       <c r="K250" t="n">
-        <v>-23.80952380952387</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L250" t="n">
         <v>28.65</v>
@@ -13029,7 +13051,7 @@
         <v>22.49999999999997</v>
       </c>
       <c r="K251" t="n">
-        <v>-13.04347826086963</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L251" t="n">
         <v>28.65</v>
@@ -13080,7 +13102,7 @@
         <v>22.49999999999997</v>
       </c>
       <c r="K252" t="n">
-        <v>-13.04347826086963</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>28.65999999999999</v>
@@ -13131,7 +13153,7 @@
         <v>22.59999999999997</v>
       </c>
       <c r="K253" t="n">
-        <v>-21.7391304347827</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L253" t="n">
         <v>28.65</v>
@@ -13182,7 +13204,7 @@
         <v>22.59999999999997</v>
       </c>
       <c r="K254" t="n">
-        <v>-21.7391304347827</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>28.64</v>
@@ -13233,7 +13255,7 @@
         <v>22.69999999999997</v>
       </c>
       <c r="K255" t="n">
-        <v>-13.04347826086967</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>28.65</v>
@@ -13284,7 +13306,7 @@
         <v>22.79999999999997</v>
       </c>
       <c r="K256" t="n">
-        <v>-8.333333333333345</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L256" t="n">
         <v>28.66</v>
@@ -13335,7 +13357,7 @@
         <v>22.99999999999997</v>
       </c>
       <c r="K257" t="n">
-        <v>13.04347826086967</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L257" t="n">
         <v>28.69</v>
@@ -13386,7 +13408,7 @@
         <v>22.99999999999997</v>
       </c>
       <c r="K258" t="n">
-        <v>-5.263157894736961</v>
+        <v>50</v>
       </c>
       <c r="L258" t="n">
         <v>28.72</v>
@@ -13437,7 +13459,7 @@
         <v>22.99999999999997</v>
       </c>
       <c r="K259" t="n">
-        <v>12.50000000000008</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L259" t="n">
         <v>28.76</v>
@@ -13488,7 +13510,7 @@
         <v>23.09999999999997</v>
       </c>
       <c r="K260" t="n">
-        <v>12.50000000000028</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L260" t="n">
         <v>28.82</v>
@@ -13539,7 +13561,7 @@
         <v>23.09999999999997</v>
       </c>
       <c r="K261" t="n">
-        <v>28.57142857142897</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L261" t="n">
         <v>28.86</v>
@@ -13590,7 +13612,7 @@
         <v>23.09999999999997</v>
       </c>
       <c r="K262" t="n">
-        <v>38.46153846153876</v>
+        <v>100</v>
       </c>
       <c r="L262" t="n">
         <v>28.90000000000001</v>
@@ -13641,7 +13663,7 @@
         <v>23.09999999999997</v>
       </c>
       <c r="K263" t="n">
-        <v>33.33333333333373</v>
+        <v>100</v>
       </c>
       <c r="L263" t="n">
         <v>28.95000000000001</v>
@@ -13692,7 +13714,7 @@
         <v>23.09999999999997</v>
       </c>
       <c r="K264" t="n">
-        <v>33.33333333333373</v>
+        <v>100</v>
       </c>
       <c r="L264" t="n">
         <v>29.00000000000001</v>
@@ -13743,7 +13765,7 @@
         <v>23.09999999999997</v>
       </c>
       <c r="K265" t="n">
-        <v>45.45454545454569</v>
+        <v>100</v>
       </c>
       <c r="L265" t="n">
         <v>29.04000000000001</v>
@@ -13794,7 +13816,7 @@
         <v>23.09999999999997</v>
       </c>
       <c r="K266" t="n">
-        <v>40.00000000000036</v>
+        <v>100</v>
       </c>
       <c r="L266" t="n">
         <v>29.07000000000001</v>
@@ -13845,7 +13867,7 @@
         <v>23.09999999999997</v>
       </c>
       <c r="K267" t="n">
-        <v>40.00000000000036</v>
+        <v>100</v>
       </c>
       <c r="L267" t="n">
         <v>29.08000000000001</v>
@@ -13896,7 +13918,7 @@
         <v>23.09999999999997</v>
       </c>
       <c r="K268" t="n">
-        <v>40.00000000000036</v>
+        <v>100</v>
       </c>
       <c r="L268" t="n">
         <v>29.09000000000001</v>
@@ -13947,7 +13969,7 @@
         <v>23.19999999999997</v>
       </c>
       <c r="K269" t="n">
-        <v>39.99999999999986</v>
+        <v>-100</v>
       </c>
       <c r="L269" t="n">
         <v>29.09000000000001</v>
@@ -13998,7 +14020,7 @@
         <v>23.29999999999997</v>
       </c>
       <c r="K270" t="n">
-        <v>60.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>29.09000000000001</v>
@@ -14049,7 +14071,7 @@
         <v>23.39999999999997</v>
       </c>
       <c r="K271" t="n">
-        <v>55.55555555555565</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L271" t="n">
         <v>29.10000000000001</v>
@@ -14100,7 +14122,7 @@
         <v>23.39999999999997</v>
       </c>
       <c r="K272" t="n">
-        <v>55.55555555555565</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L272" t="n">
         <v>29.11000000000001</v>
@@ -14151,7 +14173,7 @@
         <v>23.39999999999997</v>
       </c>
       <c r="K273" t="n">
-        <v>74.99999999999967</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L273" t="n">
         <v>29.12</v>
@@ -14202,7 +14224,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K274" t="n">
-        <v>55.55555555555565</v>
+        <v>0</v>
       </c>
       <c r="L274" t="n">
         <v>29.12</v>
@@ -14253,7 +14275,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K275" t="n">
-        <v>50.00000000000022</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>29.12</v>
@@ -14304,7 +14326,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K276" t="n">
-        <v>42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>29.12</v>
@@ -14355,7 +14377,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K277" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>29.12</v>
@@ -14406,7 +14428,7 @@
         <v>23.59999999999997</v>
       </c>
       <c r="K278" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L278" t="n">
         <v>29.13</v>
@@ -14457,7 +14479,7 @@
         <v>23.79999999999997</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L279" t="n">
         <v>29.13</v>
@@ -14508,7 +14530,7 @@
         <v>23.79999999999997</v>
       </c>
       <c r="K280" t="n">
-        <v>-14.28571428571458</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L280" t="n">
         <v>29.12</v>
@@ -14559,7 +14581,7 @@
         <v>23.79999999999997</v>
       </c>
       <c r="K281" t="n">
-        <v>-14.28571428571458</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L281" t="n">
         <v>29.1</v>
@@ -14610,7 +14632,7 @@
         <v>23.79999999999997</v>
       </c>
       <c r="K282" t="n">
-        <v>-14.28571428571458</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L282" t="n">
         <v>29.08</v>
@@ -14661,7 +14683,7 @@
         <v>23.99999999999996</v>
       </c>
       <c r="K283" t="n">
-        <v>11.11111111111093</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L283" t="n">
         <v>29.08</v>
@@ -14712,7 +14734,7 @@
         <v>24.19999999999996</v>
       </c>
       <c r="K284" t="n">
-        <v>-9.090909090909268</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L284" t="n">
         <v>29.07</v>
@@ -14865,7 +14887,7 @@
         <v>24.49999999999997</v>
       </c>
       <c r="K287" t="n">
-        <v>-14.2857142857145</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L287" t="n">
         <v>29.04999999999999</v>
@@ -14916,7 +14938,7 @@
         <v>24.59999999999997</v>
       </c>
       <c r="K288" t="n">
-        <v>-6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>29.02999999999999</v>
@@ -15018,7 +15040,7 @@
         <v>24.69999999999997</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L290" t="n">
         <v>29.04</v>
@@ -15069,7 +15091,7 @@
         <v>24.69999999999997</v>
       </c>
       <c r="K291" t="n">
-        <v>-7.692307692307525</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L291" t="n">
         <v>29.05</v>
@@ -15120,7 +15142,7 @@
         <v>24.69999999999997</v>
       </c>
       <c r="K292" t="n">
-        <v>-7.692307692307525</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L292" t="n">
         <v>29.06</v>
@@ -15171,7 +15193,7 @@
         <v>24.79999999999997</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L293" t="n">
         <v>29.06</v>
@@ -15222,7 +15244,7 @@
         <v>24.79999999999997</v>
       </c>
       <c r="K294" t="n">
-        <v>7.692307692307525</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L294" t="n">
         <v>29.08</v>
@@ -15273,7 +15295,7 @@
         <v>24.79999999999997</v>
       </c>
       <c r="K295" t="n">
-        <v>7.692307692307525</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L295" t="n">
         <v>29.09</v>
@@ -15324,7 +15346,7 @@
         <v>24.89999999999997</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L296" t="n">
         <v>29.09</v>
@@ -15375,7 +15397,7 @@
         <v>24.99999999999996</v>
       </c>
       <c r="K297" t="n">
-        <v>6.66666666666654</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L297" t="n">
         <v>29.12</v>
@@ -15426,7 +15448,7 @@
         <v>24.99999999999996</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L298" t="n">
         <v>29.14</v>
@@ -15477,7 +15499,7 @@
         <v>24.99999999999996</v>
       </c>
       <c r="K299" t="n">
-        <v>16.66666666666662</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L299" t="n">
         <v>29.16</v>
@@ -15528,7 +15550,7 @@
         <v>25.09999999999996</v>
       </c>
       <c r="K300" t="n">
-        <v>7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>29.16</v>
@@ -15579,7 +15601,7 @@
         <v>25.19999999999996</v>
       </c>
       <c r="K301" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L301" t="n">
         <v>29.16999999999999</v>
@@ -15630,7 +15652,7 @@
         <v>25.19999999999996</v>
       </c>
       <c r="K302" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>29.17999999999999</v>
@@ -15681,7 +15703,7 @@
         <v>25.29999999999996</v>
       </c>
       <c r="K303" t="n">
-        <v>7.692307692307819</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L303" t="n">
         <v>29.18999999999999</v>
@@ -15732,7 +15754,7 @@
         <v>25.29999999999996</v>
       </c>
       <c r="K304" t="n">
-        <v>27.27272727272739</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L304" t="n">
         <v>29.2</v>
@@ -15783,7 +15805,7 @@
         <v>25.39999999999996</v>
       </c>
       <c r="K305" t="n">
-        <v>27.27272727272715</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L305" t="n">
         <v>29.21999999999999</v>
@@ -15834,7 +15856,7 @@
         <v>25.39999999999996</v>
       </c>
       <c r="K306" t="n">
-        <v>27.27272727272715</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L306" t="n">
         <v>29.24999999999999</v>
@@ -15885,7 +15907,7 @@
         <v>25.39999999999996</v>
       </c>
       <c r="K307" t="n">
-        <v>55.55555555555608</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L307" t="n">
         <v>29.26999999999999</v>
@@ -15936,7 +15958,7 @@
         <v>25.49999999999996</v>
       </c>
       <c r="K308" t="n">
-        <v>55.55555555555608</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L308" t="n">
         <v>29.29999999999999</v>
@@ -15987,7 +16009,7 @@
         <v>25.79999999999996</v>
       </c>
       <c r="K309" t="n">
-        <v>16.66666666666671</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L309" t="n">
         <v>29.29999999999999</v>
@@ -16038,7 +16060,7 @@
         <v>25.89999999999996</v>
       </c>
       <c r="K310" t="n">
-        <v>16.66666666666671</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L310" t="n">
         <v>29.31999999999999</v>
@@ -16089,7 +16111,7 @@
         <v>25.99999999999996</v>
       </c>
       <c r="K311" t="n">
-        <v>23.07692307692303</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L311" t="n">
         <v>29.33999999999999</v>
@@ -16140,7 +16162,7 @@
         <v>26.09999999999996</v>
       </c>
       <c r="K312" t="n">
-        <v>28.57142857142864</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L312" t="n">
         <v>29.36999999999999</v>
@@ -16191,7 +16213,7 @@
         <v>26.19999999999996</v>
       </c>
       <c r="K313" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L313" t="n">
         <v>29.37999999999998</v>
@@ -16242,7 +16264,7 @@
         <v>26.19999999999996</v>
       </c>
       <c r="K314" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>29.38999999999998</v>
@@ -16293,7 +16315,7 @@
         <v>26.29999999999997</v>
       </c>
       <c r="K315" t="n">
-        <v>20.0000000000001</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L315" t="n">
         <v>29.39999999999998</v>
@@ -16344,7 +16366,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K316" t="n">
-        <v>19.99999999999981</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>29.39999999999998</v>
@@ -16395,7 +16417,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K317" t="n">
-        <v>14.28571428571421</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L317" t="n">
         <v>29.39999999999998</v>
@@ -16446,7 +16468,7 @@
         <v>26.49999999999997</v>
       </c>
       <c r="K318" t="n">
-        <v>20</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L318" t="n">
         <v>29.39999999999998</v>
@@ -16497,7 +16519,7 @@
         <v>26.59999999999997</v>
       </c>
       <c r="K319" t="n">
-        <v>12.49999999999992</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L319" t="n">
         <v>29.41999999999998</v>
@@ -16548,7 +16570,7 @@
         <v>26.69999999999997</v>
       </c>
       <c r="K320" t="n">
-        <v>24.99999999999978</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L320" t="n">
         <v>29.43999999999998</v>
@@ -16599,7 +16621,7 @@
         <v>26.79999999999997</v>
       </c>
       <c r="K321" t="n">
-        <v>24.99999999999994</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L321" t="n">
         <v>29.45999999999999</v>
@@ -16650,7 +16672,7 @@
         <v>26.89999999999997</v>
       </c>
       <c r="K322" t="n">
-        <v>29.41176470588218</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L322" t="n">
         <v>29.47999999999998</v>
@@ -16701,7 +16723,7 @@
         <v>26.99999999999997</v>
       </c>
       <c r="K323" t="n">
-        <v>29.41176470588218</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L323" t="n">
         <v>29.51999999999999</v>
@@ -16752,7 +16774,7 @@
         <v>26.99999999999997</v>
       </c>
       <c r="K324" t="n">
-        <v>29.41176470588218</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L324" t="n">
         <v>29.55999999999999</v>
@@ -16803,7 +16825,7 @@
         <v>27.09999999999997</v>
       </c>
       <c r="K325" t="n">
-        <v>29.41176470588218</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L325" t="n">
         <v>29.59999999999999</v>
@@ -16854,7 +16876,7 @@
         <v>27.29999999999997</v>
       </c>
       <c r="K326" t="n">
-        <v>36.8421052631578</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L326" t="n">
         <v>29.66999999999999</v>
@@ -16905,7 +16927,7 @@
         <v>27.49999999999997</v>
       </c>
       <c r="K327" t="n">
-        <v>42.85714285714271</v>
+        <v>79.99999999999979</v>
       </c>
       <c r="L327" t="n">
         <v>29.76</v>
@@ -16956,7 +16978,7 @@
         <v>27.59999999999997</v>
       </c>
       <c r="K328" t="n">
-        <v>33.33333333333311</v>
+        <v>79.99999999999979</v>
       </c>
       <c r="L328" t="n">
         <v>29.82999999999999</v>
@@ -17007,7 +17029,7 @@
         <v>27.59999999999997</v>
       </c>
       <c r="K329" t="n">
-        <v>55.5555555555552</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L329" t="n">
         <v>29.91</v>
@@ -17058,7 +17080,7 @@
         <v>27.79999999999997</v>
       </c>
       <c r="K330" t="n">
-        <v>57.89473684210486</v>
+        <v>79.99999999999972</v>
       </c>
       <c r="L330" t="n">
         <v>29.99999999999999</v>
@@ -17109,7 +17131,7 @@
         <v>28.09999999999997</v>
       </c>
       <c r="K331" t="n">
-        <v>61.90476190476159</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L331" t="n">
         <v>30.10999999999999</v>
@@ -17160,7 +17182,7 @@
         <v>28.19999999999997</v>
       </c>
       <c r="K332" t="n">
-        <v>52.38095238095224</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L332" t="n">
         <v>30.2</v>
@@ -17211,7 +17233,7 @@
         <v>28.39999999999997</v>
       </c>
       <c r="K333" t="n">
-        <v>45.45454545454525</v>
+        <v>42.85714285714264</v>
       </c>
       <c r="L333" t="n">
         <v>30.25999999999999</v>
@@ -17262,7 +17284,7 @@
         <v>28.49999999999998</v>
       </c>
       <c r="K334" t="n">
-        <v>47.82608695652156</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L334" t="n">
         <v>30.32999999999999</v>
@@ -17313,7 +17335,7 @@
         <v>28.49999999999998</v>
       </c>
       <c r="K335" t="n">
-        <v>45.45454545454525</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L335" t="n">
         <v>30.38999999999999</v>
@@ -17364,7 +17386,7 @@
         <v>28.59999999999998</v>
       </c>
       <c r="K336" t="n">
-        <v>45.45454545454525</v>
+        <v>9.090909090908857</v>
       </c>
       <c r="L336" t="n">
         <v>30.41999999999999</v>
@@ -17415,7 +17437,7 @@
         <v>28.69999999999997</v>
       </c>
       <c r="K337" t="n">
-        <v>39.13043478260865</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L337" t="n">
         <v>30.41999999999999</v>
@@ -17466,7 +17488,7 @@
         <v>28.69999999999997</v>
       </c>
       <c r="K338" t="n">
-        <v>36.3636363636363</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L338" t="n">
         <v>30.42999999999999</v>
@@ -17517,7 +17539,7 @@
         <v>28.69999999999997</v>
       </c>
       <c r="K339" t="n">
-        <v>42.85714285714285</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L339" t="n">
         <v>30.43999999999999</v>
@@ -17568,7 +17590,7 @@
         <v>28.69999999999997</v>
       </c>
       <c r="K340" t="n">
-        <v>39.99999999999996</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L340" t="n">
         <v>30.43</v>
@@ -17619,7 +17641,7 @@
         <v>28.79999999999998</v>
       </c>
       <c r="K341" t="n">
-        <v>29.99999999999984</v>
+        <v>-66.66666666666647</v>
       </c>
       <c r="L341" t="n">
         <v>30.38</v>
@@ -17670,7 +17692,7 @@
         <v>28.79999999999998</v>
       </c>
       <c r="K342" t="n">
-        <v>26.31578947368413</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L342" t="n">
         <v>30.33999999999999</v>
@@ -17721,7 +17743,7 @@
         <v>29.09999999999998</v>
       </c>
       <c r="K343" t="n">
-        <v>33.33333333333322</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>30.34999999999999</v>
@@ -17772,7 +17794,7 @@
         <v>29.19999999999998</v>
       </c>
       <c r="K344" t="n">
-        <v>27.2727272727271</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L344" t="n">
         <v>30.33999999999999</v>
@@ -17823,7 +17845,7 @@
         <v>29.29999999999998</v>
       </c>
       <c r="K345" t="n">
-        <v>27.27272727272722</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L345" t="n">
         <v>30.33999999999999</v>
@@ -17874,7 +17896,7 @@
         <v>29.29999999999998</v>
       </c>
       <c r="K346" t="n">
-        <v>19.99999999999986</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L346" t="n">
         <v>30.34999999999999</v>
@@ -17925,7 +17947,7 @@
         <v>29.29999999999998</v>
       </c>
       <c r="K347" t="n">
-        <v>11.11111111111102</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L347" t="n">
         <v>30.36999999999999</v>
@@ -17976,7 +17998,7 @@
         <v>29.49999999999998</v>
       </c>
       <c r="K348" t="n">
-        <v>5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
         <v>30.36999999999999</v>
@@ -18027,7 +18049,7 @@
         <v>29.49999999999998</v>
       </c>
       <c r="K349" t="n">
-        <v>5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L349" t="n">
         <v>30.36999999999999</v>
@@ -18078,7 +18100,7 @@
         <v>29.49999999999998</v>
       </c>
       <c r="K350" t="n">
-        <v>-5.882352941176324</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L350" t="n">
         <v>30.36999999999999</v>
@@ -18129,7 +18151,7 @@
         <v>29.59999999999998</v>
       </c>
       <c r="K351" t="n">
-        <v>-20</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L351" t="n">
         <v>30.38999999999999</v>
@@ -18180,7 +18202,7 @@
         <v>29.69999999999997</v>
       </c>
       <c r="K352" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L352" t="n">
         <v>30.4</v>
@@ -18231,7 +18253,7 @@
         <v>29.79999999999998</v>
       </c>
       <c r="K353" t="n">
-        <v>-14.28571428571421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L353" t="n">
         <v>30.36999999999999</v>

--- a/BackTest/2019-10-15 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-15 BackTest LOOM.xlsx
@@ -451,20 +451,14 @@
         <v>28.71166666666669</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>28.72166666666669</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>28.72833333333336</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>29</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>28.73666666666669</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>28.74500000000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>29</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>28.75333333333336</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>29</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>28.76166666666669</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>28.77166666666669</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>28.78333333333336</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>28.79333333333336</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -868,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -907,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -946,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -985,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1024,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1063,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1102,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1137,16 +1049,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1174,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1209,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2396,17 +2306,13 @@
         <v>29.08166666666669</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
@@ -2435,22 +2341,14 @@
         <v>29.07833333333335</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K56" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2478,22 +2376,14 @@
         <v>29.07666666666669</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K57" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2521,17 +2411,13 @@
         <v>29.07500000000002</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K58" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2571,11 +2457,7 @@
       <c r="K59" t="n">
         <v>28.7</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2609,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="K60" t="n">
         <v>28.7</v>
@@ -2652,12 +2534,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="K61" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L61" t="inlineStr"/>
+        <v>28.7</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2691,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="K62" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2737,7 +2623,7 @@
         <v>28.5</v>
       </c>
       <c r="K63" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2777,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="K64" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2823,7 +2709,7 @@
         <v>28.8</v>
       </c>
       <c r="K65" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2857,16 +2743,14 @@
         <v>29.05333333333336</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2900,16 +2784,14 @@
         <v>29.05000000000002</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2943,16 +2825,14 @@
         <v>29.04666666666669</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2986,16 +2866,14 @@
         <v>29.04166666666669</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3029,16 +2907,14 @@
         <v>29.03500000000003</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3072,16 +2948,14 @@
         <v>29.02833333333336</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3115,16 +2989,14 @@
         <v>29.02333333333337</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3158,16 +3030,14 @@
         <v>29.01500000000003</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3201,16 +3071,14 @@
         <v>29.0116666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>29</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3244,16 +3112,14 @@
         <v>29.01000000000003</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>29</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3287,16 +3153,14 @@
         <v>29.00500000000003</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3337,7 +3201,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3378,7 +3242,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3419,7 +3283,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3460,7 +3324,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3501,7 +3365,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3542,7 +3406,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3583,7 +3447,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3624,7 +3488,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3665,7 +3529,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3706,7 +3570,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3747,7 +3611,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3788,7 +3652,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3829,7 +3693,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3866,19 +3730,19 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1.008888888888889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3910,8 +3774,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3945,8 +3815,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3980,8 +3856,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4015,8 +3897,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4050,8 +3938,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4085,8 +3979,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4120,8 +4020,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4155,8 +4061,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4190,8 +4102,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4225,8 +4143,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4260,8 +4184,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4295,8 +4225,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4330,8 +4266,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4365,8 +4307,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4400,8 +4348,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4435,8 +4389,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4470,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4505,8 +4471,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4540,8 +4512,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4575,8 +4553,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4610,8 +4594,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4635,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4680,8 +4676,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4715,8 +4717,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4750,8 +4758,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4785,8 +4799,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4820,8 +4840,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4855,8 +4881,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4890,8 +4922,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4925,8 +4963,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4960,8 +5004,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4995,8 +5045,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5030,8 +5086,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5065,8 +5127,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5100,8 +5168,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5135,8 +5209,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5170,8 +5250,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5205,8 +5291,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5240,8 +5332,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5275,8 +5373,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5310,8 +5414,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5345,8 +5455,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5374,18 +5490,20 @@
         <v>29.06666666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
+        <v>28.7</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5413,20 +5531,18 @@
         <v>29.065</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -5456,16 +5572,14 @@
         <v>29.06</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5499,16 +5613,14 @@
         <v>29.05333333333334</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5542,16 +5654,14 @@
         <v>29.04666666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5585,16 +5695,14 @@
         <v>29.04333333333334</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5628,16 +5736,14 @@
         <v>29.03666666666668</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5671,16 +5777,14 @@
         <v>29.03166666666668</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5714,16 +5818,14 @@
         <v>29.02166666666668</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5757,16 +5859,14 @@
         <v>29.01333333333334</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5800,16 +5900,14 @@
         <v>29.00833333333334</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>29</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5843,16 +5941,14 @@
         <v>29.00666666666668</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5886,16 +5982,14 @@
         <v>29.00333333333335</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5929,16 +6023,14 @@
         <v>28.99500000000002</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5979,7 +6071,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6013,16 +6105,14 @@
         <v>28.99000000000001</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>29</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6056,16 +6146,14 @@
         <v>28.98833333333334</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6106,7 +6194,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6147,7 +6235,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6188,7 +6276,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6229,7 +6317,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6270,7 +6358,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6311,7 +6399,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6352,7 +6440,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6393,7 +6481,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6434,7 +6522,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6475,7 +6563,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6516,7 +6604,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6557,7 +6645,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6598,7 +6686,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6639,7 +6727,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6680,7 +6768,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6721,7 +6809,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6762,7 +6850,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6803,7 +6891,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6844,7 +6932,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6885,7 +6973,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6926,7 +7014,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6967,7 +7055,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7008,7 +7096,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7049,7 +7137,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7090,7 +7178,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7131,7 +7219,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7172,7 +7260,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7213,7 +7301,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7254,7 +7342,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7295,7 +7383,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7336,7 +7424,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7377,7 +7465,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7418,7 +7506,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7459,7 +7547,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7500,7 +7588,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7541,7 +7629,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7582,7 +7670,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7623,7 +7711,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7664,7 +7752,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7705,7 +7793,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7746,7 +7834,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7787,7 +7875,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7828,7 +7916,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7869,7 +7957,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7910,7 +7998,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7951,7 +8039,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7992,7 +8080,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -8033,7 +8121,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -8074,7 +8162,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -8115,7 +8203,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -8156,7 +8244,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -8197,7 +8285,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -8238,7 +8326,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -8279,7 +8367,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -8320,7 +8408,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -8361,7 +8449,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -8402,7 +8490,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -8443,7 +8531,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8484,7 +8572,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8525,7 +8613,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8566,7 +8654,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8607,7 +8695,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8648,7 +8736,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8689,7 +8777,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8730,7 +8818,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8771,7 +8859,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8812,7 +8900,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8853,7 +8941,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8894,7 +8982,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8935,7 +9023,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8976,7 +9064,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -9017,7 +9105,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -9058,7 +9146,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -9099,7 +9187,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -9140,7 +9228,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -9181,7 +9269,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -9222,7 +9310,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -9263,7 +9351,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -9304,7 +9392,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -9345,7 +9433,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -9386,7 +9474,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -9427,7 +9515,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9468,7 +9556,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9509,7 +9597,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9550,7 +9638,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9591,7 +9679,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9632,7 +9720,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9673,7 +9761,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9714,7 +9802,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9755,7 +9843,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9796,7 +9884,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9837,7 +9925,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9878,7 +9966,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9919,7 +10007,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9953,16 +10041,14 @@
         <v>29.05166666666667</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9996,16 +10082,14 @@
         <v>29.04333333333334</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -10039,16 +10123,14 @@
         <v>29.035</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -10082,16 +10164,14 @@
         <v>29.02666666666667</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -10125,16 +10205,14 @@
         <v>29.02</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -10168,16 +10246,14 @@
         <v>29.01333333333334</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -10211,16 +10287,14 @@
         <v>29.00333333333334</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -10254,16 +10328,14 @@
         <v>28.995</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -10297,16 +10369,14 @@
         <v>28.98833333333334</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -10340,16 +10410,14 @@
         <v>28.97833333333334</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -10383,16 +10451,14 @@
         <v>28.96833333333334</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -10426,16 +10492,14 @@
         <v>28.96</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -10469,16 +10533,14 @@
         <v>28.955</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -10512,16 +10574,14 @@
         <v>28.95166666666667</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -10555,16 +10615,14 @@
         <v>28.94666666666667</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>29</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -10598,16 +10656,14 @@
         <v>28.94166666666667</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>29</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -10641,16 +10697,14 @@
         <v>28.94</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>29</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -10684,16 +10738,14 @@
         <v>28.93833333333333</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -10727,16 +10779,14 @@
         <v>28.93666666666666</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -10777,7 +10827,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -10818,7 +10868,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10859,7 +10909,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10900,7 +10950,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10941,7 +10991,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10982,7 +11032,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -11023,7 +11073,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -11064,7 +11114,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -11105,7 +11155,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -11146,7 +11196,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -11187,7 +11237,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -11228,7 +11278,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -11269,7 +11319,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -11310,7 +11360,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -11351,7 +11401,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -11392,7 +11442,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -11433,7 +11483,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -11474,7 +11524,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -11515,7 +11565,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -11556,7 +11606,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -11597,7 +11647,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -11638,7 +11688,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -11679,7 +11729,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -11720,7 +11770,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -11761,7 +11811,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -11802,7 +11852,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -11843,7 +11893,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -11884,7 +11934,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -11925,7 +11975,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -11966,7 +12016,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -12007,7 +12057,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -12048,7 +12098,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -12089,7 +12139,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -12130,7 +12180,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -12171,7 +12221,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -12212,7 +12262,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -12253,7 +12303,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -12294,7 +12344,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -12335,7 +12385,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -12376,7 +12426,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -12417,7 +12467,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -12458,7 +12508,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -12499,7 +12549,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -12540,7 +12590,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -12581,7 +12631,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -12622,7 +12672,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -12663,7 +12713,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -12704,7 +12754,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -12745,7 +12795,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -12786,7 +12836,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -12827,7 +12877,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -12868,7 +12918,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -12909,7 +12959,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -12950,7 +13000,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -12991,7 +13041,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -13032,7 +13082,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -13073,7 +13123,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -13114,7 +13164,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -13155,7 +13205,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -13196,7 +13246,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -13237,7 +13287,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -13278,7 +13328,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -13319,7 +13369,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -13360,7 +13410,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -13401,7 +13451,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -13442,7 +13492,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -13450,7 +13500,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>1.043611111111111</v>
+        <v>1.047264808362369</v>
       </c>
     </row>
     <row r="329">
@@ -13514,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>

--- a/BackTest/2019-10-15 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-15 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-63462.45030000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-63462.45030000002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-63462.45030000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-30646.29650000002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-30646.29650000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>37879.79109999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -723,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -762,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -840,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -879,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -918,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -957,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -996,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1035,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1074,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1113,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1152,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1191,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1230,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1269,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1308,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1347,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1386,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1425,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1464,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1503,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1542,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1581,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1620,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1659,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1698,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1737,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1776,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1815,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1854,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1893,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1932,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1971,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2010,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2049,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2088,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2127,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2166,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2205,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2244,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2283,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2322,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2361,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2400,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2439,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2478,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2517,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2556,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2595,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2634,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2673,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2712,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2751,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2790,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2829,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2868,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2907,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2946,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2985,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3024,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3063,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3102,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3141,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3180,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3216,15 +2794,15 @@
         <v>-1316778.183</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -3258,9 +2836,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3297,9 +2873,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3336,9 +2910,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3375,9 +2947,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,9 +2984,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3453,9 +3021,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,9 +3058,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3531,9 +3095,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3570,9 +3132,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3609,9 +3169,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3648,9 +3206,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3687,9 +3243,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3726,9 +3280,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3765,9 +3317,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3804,9 +3354,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3843,9 +3391,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3882,9 +3428,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3918,12 +3462,12 @@
         <v>-1195003.3661</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3960,9 +3504,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3999,9 +3541,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4038,9 +3578,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4074,12 +3612,12 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4113,12 +3651,12 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4155,9 +3693,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,9 +3730,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4230,12 +3764,12 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4269,12 +3803,12 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4308,12 +3842,12 @@
         <v>-1256461.524500001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4347,12 +3881,12 @@
         <v>-1256461.524500001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,12 +3920,12 @@
         <v>-1263772.524500001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4425,12 +3959,12 @@
         <v>-1305626.9105</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4464,12 +3998,12 @@
         <v>-1305626.9105</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4503,12 +4037,12 @@
         <v>-1405626.9105</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4544,10 +4078,10 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I107" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4583,10 +4117,10 @@
       <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I108" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4622,10 +4156,10 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I109" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4659,12 +4193,12 @@
         <v>-1406398.058200001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4700,10 +4234,10 @@
       <c r="H111" t="n">
         <v>1</v>
       </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I111" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4739,10 +4273,10 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I112" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4778,10 +4312,10 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
+      <c r="I113" t="n">
         <v>28.5</v>
       </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4815,12 +4349,12 @@
         <v>-1456819.329300001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,10 +4390,10 @@
       <c r="H115" t="n">
         <v>1</v>
       </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I115" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4895,10 +4429,10 @@
       <c r="H116" t="n">
         <v>1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I116" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4934,10 +4468,10 @@
       <c r="H117" t="n">
         <v>1</v>
       </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I117" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4973,10 +4507,10 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I118" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5012,10 +4546,10 @@
       <c r="H119" t="n">
         <v>1</v>
       </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I119" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5051,10 +4585,10 @@
       <c r="H120" t="n">
         <v>1</v>
       </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I120" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5090,10 +4624,10 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I121" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5129,10 +4663,10 @@
       <c r="H122" t="n">
         <v>1</v>
       </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
+      <c r="I122" t="n">
         <v>28.5</v>
       </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,10 +4702,10 @@
       <c r="H123" t="n">
         <v>1</v>
       </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I123" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5207,10 +4741,10 @@
       <c r="H124" t="n">
         <v>1</v>
       </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I124" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,12 +4778,10 @@
         <v>-1309226.625200001</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5283,12 +4815,10 @@
         <v>-1206184.494500001</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5322,12 +4852,10 @@
         <v>-1155847.262800001</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5361,12 +4889,10 @@
         <v>-1155847.262800001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5400,12 +4926,10 @@
         <v>-1155847.262800001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5442,9 +4966,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5481,9 +5003,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5517,12 +5037,10 @@
         <v>-1191823.052700001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5556,12 +5074,10 @@
         <v>-1163213.190700001</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5598,9 +5114,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5637,9 +5151,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5673,12 +5185,10 @@
         <v>-1125413.190700001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5712,12 +5222,10 @@
         <v>-1126413.190700001</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5751,12 +5259,10 @@
         <v>-1099713.190700001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5793,9 +5299,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5829,12 +5333,10 @@
         <v>-831497.4296722042</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5868,12 +5370,10 @@
         <v>-899656.3711722041</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5910,9 +5410,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5949,9 +5447,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5985,12 +5481,10 @@
         <v>-898981.2213722041</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6024,12 +5518,10 @@
         <v>-896451.6534722041</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6063,12 +5555,10 @@
         <v>-896451.6534722041</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6102,12 +5592,10 @@
         <v>-896451.6534722041</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6141,12 +5629,10 @@
         <v>-896451.6534722041</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6180,12 +5666,10 @@
         <v>-896451.6534722041</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6219,12 +5703,10 @@
         <v>-896451.6534722041</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6258,12 +5740,10 @@
         <v>-949740.9216722042</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6297,12 +5777,10 @@
         <v>-949740.9216722042</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6336,12 +5814,10 @@
         <v>-949740.9216722042</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6378,9 +5854,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6414,12 +5888,10 @@
         <v>-1067169.317472204</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6453,12 +5925,10 @@
         <v>-1068159.221572204</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6492,12 +5962,10 @@
         <v>-1090314.541272204</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6531,12 +5999,10 @@
         <v>-1090314.541272204</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6570,12 +6036,10 @@
         <v>-1086714.707072204</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6609,12 +6073,10 @@
         <v>-1086714.707072204</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6648,12 +6110,10 @@
         <v>-1085600.707072204</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6687,12 +6147,10 @@
         <v>-1085600.707072204</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6729,9 +6187,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6768,9 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6807,9 +6261,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6846,9 +6298,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6885,9 +6335,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6921,12 +6369,10 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6963,9 +6409,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7002,9 +6446,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7041,9 +6483,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7077,12 +6517,10 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7119,9 +6557,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7158,9 +6594,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7197,9 +6631,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7236,9 +6668,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7275,9 +6705,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7311,12 +6739,10 @@
         <v>-1241928.078172204</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7350,12 +6776,10 @@
         <v>-1275332.117372204</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7391,10 +6815,10 @@
       <c r="H180" t="n">
         <v>1</v>
       </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I180" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7428,12 +6852,10 @@
         <v>-1437290.330272204</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7467,12 +6889,10 @@
         <v>-1460168.380472204</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7508,10 +6928,10 @@
       <c r="H183" t="n">
         <v>1</v>
       </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I183" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7545,12 +6965,10 @@
         <v>-1460146.380472204</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7584,12 +7002,10 @@
         <v>-1460780.265772204</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7625,10 +7041,10 @@
       <c r="H186" t="n">
         <v>1</v>
       </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I186" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7662,12 +7078,10 @@
         <v>-1466769.372072204</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7703,10 +7117,10 @@
       <c r="H188" t="n">
         <v>1</v>
       </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I188" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7740,12 +7154,10 @@
         <v>-1467455.793172204</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7781,10 +7193,10 @@
       <c r="H190" t="n">
         <v>1</v>
       </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I190" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7820,10 +7232,10 @@
       <c r="H191" t="n">
         <v>1</v>
       </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I191" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7859,10 +7271,10 @@
       <c r="H192" t="n">
         <v>1</v>
       </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I192" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7899,9 +7311,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7935,12 +7345,10 @@
         <v>-1487368.620672204</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7974,12 +7382,10 @@
         <v>-1598154.860672204</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8015,10 +7421,10 @@
       <c r="H196" t="n">
         <v>1</v>
       </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I196" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8054,10 +7460,10 @@
       <c r="H197" t="n">
         <v>1</v>
       </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I197" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8093,10 +7499,10 @@
       <c r="H198" t="n">
         <v>1</v>
       </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I198" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8132,10 +7538,10 @@
       <c r="H199" t="n">
         <v>1</v>
       </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I199" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8171,10 +7577,10 @@
       <c r="H200" t="n">
         <v>1</v>
       </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I200" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8208,12 +7614,10 @@
         <v>-1600984.998172204</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8247,12 +7651,10 @@
         <v>-1600884.998172204</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8286,12 +7688,10 @@
         <v>-1601706.766072204</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8325,12 +7725,10 @@
         <v>-1601706.766072204</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8367,9 +7765,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8405,10 +7801,10 @@
       <c r="H206" t="n">
         <v>1</v>
       </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I206" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8445,9 +7841,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,9 +7878,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8523,9 +7915,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8562,9 +7952,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8601,9 +7989,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8637,12 +8023,10 @@
         <v>-1551538.852672204</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8679,9 +8063,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8715,12 +8097,10 @@
         <v>-1587968.852672204</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8757,9 +8137,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8796,9 +8174,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8835,9 +8211,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8871,12 +8245,10 @@
         <v>-1587968.852672204</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8913,9 +8285,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8949,12 +8319,10 @@
         <v>-1587968.852672204</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8991,9 +8359,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9030,9 +8396,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9069,9 +8433,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9108,9 +8470,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9147,9 +8507,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9186,9 +8544,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9225,9 +8581,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9264,9 +8618,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9303,9 +8655,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9342,9 +8692,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9381,9 +8729,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9417,12 +8763,12 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9456,12 +8802,12 @@
         <v>-1744551.073072204</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9495,12 +8841,12 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9534,12 +8880,12 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9573,12 +8919,12 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9612,12 +8958,12 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9651,12 +8997,12 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9690,12 +9036,12 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9729,12 +9075,12 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9768,12 +9114,12 @@
         <v>-1664663.305872204</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9807,12 +9153,12 @@
         <v>-1664663.305872204</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9846,12 +9192,12 @@
         <v>-1668253.305872204</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9885,12 +9231,12 @@
         <v>-1668253.305872204</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9924,12 +9270,12 @@
         <v>-1596331.865972204</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9963,12 +9309,12 @@
         <v>-1596331.865972204</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10002,12 +9348,12 @@
         <v>-1642677.700672204</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10041,12 +9387,12 @@
         <v>-1645561.701172204</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10080,12 +9426,12 @@
         <v>-1644136.216672204</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>29</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10119,12 +9465,12 @@
         <v>-1626263.654872204</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10158,12 +9504,12 @@
         <v>-1629672.103472204</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10197,12 +9543,12 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10236,12 +9582,12 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10275,12 +9621,12 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10314,12 +9660,12 @@
         <v>-1616205.535072204</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10353,12 +9699,12 @@
         <v>-1616155.535072204</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10392,12 +9738,12 @@
         <v>-1596454.535072204</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10431,12 +9777,12 @@
         <v>-1596454.535072204</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10470,12 +9816,12 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10509,12 +9855,12 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10548,12 +9894,12 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10587,12 +9933,12 @@
         <v>-1530024.889172204</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10626,12 +9972,12 @@
         <v>-1535495.889072204</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10665,12 +10011,12 @@
         <v>-1571041.308172204</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10704,12 +10050,12 @@
         <v>-1541382.542672204</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10743,12 +10089,12 @@
         <v>-1541382.542672204</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10782,12 +10128,12 @@
         <v>-1545477.815172204</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10821,12 +10167,12 @@
         <v>-1563987.343672204</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10860,12 +10206,12 @@
         <v>-1547607.343672204</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10899,12 +10245,12 @@
         <v>-1552108.879672204</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10938,12 +10284,12 @@
         <v>-1552108.879672204</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>29</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10977,12 +10323,12 @@
         <v>-1550408.879672204</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>29</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11016,12 +10362,12 @@
         <v>-1551725.879672204</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11055,12 +10401,12 @@
         <v>-1537625.879672204</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11094,12 +10440,12 @@
         <v>-1602327.631972204</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11133,12 +10479,12 @@
         <v>-1598868.179772204</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>29</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11172,12 +10518,12 @@
         <v>-1598868.179772204</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11211,12 +10557,12 @@
         <v>-1598868.179772204</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11250,12 +10596,12 @@
         <v>-1630468.179772204</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11289,12 +10635,12 @@
         <v>-1629081.223172204</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11328,12 +10674,12 @@
         <v>-1629081.223172204</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>29</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11367,12 +10713,12 @@
         <v>-1695838.205372204</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>29</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11406,12 +10752,12 @@
         <v>-1695221.607972204</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11445,12 +10791,12 @@
         <v>-1695590.648572204</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11484,12 +10830,12 @@
         <v>-1678922.184472204</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11523,12 +10869,12 @@
         <v>-1670157.201672204</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>29</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11562,12 +10908,12 @@
         <v>-1670157.201672204</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11601,12 +10947,12 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11640,12 +10986,12 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>29</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11679,12 +11025,12 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>29</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11718,12 +11064,12 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>29</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11757,12 +11103,12 @@
         <v>-1641020.112172204</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>29</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11796,12 +11142,12 @@
         <v>-1641020.112172204</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11835,12 +11181,12 @@
         <v>-1644572.675972204</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11874,12 +11220,12 @@
         <v>-1644572.675972204</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>29</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11913,12 +11259,12 @@
         <v>-1658388.852872204</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>29</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11952,12 +11298,12 @@
         <v>-1556388.852872204</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11991,12 +11337,12 @@
         <v>-1632671.872472204</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12030,12 +11376,12 @@
         <v>-1609569.872472204</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12069,12 +11415,12 @@
         <v>-1610202.740972204</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12108,12 +11454,12 @@
         <v>-1610383.153972204</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12147,12 +11493,12 @@
         <v>-1603410.720572204</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12186,12 +11532,12 @@
         <v>-1603410.720572204</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12225,12 +11571,12 @@
         <v>-1603447.216872204</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12264,12 +11610,12 @@
         <v>-1592503.216872204</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12303,12 +11649,12 @@
         <v>-1592503.216872204</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12342,12 +11688,12 @@
         <v>-1592503.216872204</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12381,12 +11727,12 @@
         <v>-1607143.301272204</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12420,12 +11766,12 @@
         <v>-1609253.982172204</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12459,12 +11805,12 @@
         <v>-1608347.278172204</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
         <v>28.5</v>
       </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12498,12 +11844,12 @@
         <v>-1608347.278172204</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12537,12 +11883,12 @@
         <v>-1703578.160572204</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12576,12 +11922,12 @@
         <v>-1703578.160572204</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12615,12 +11961,12 @@
         <v>-1701978.160572204</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12654,12 +12000,12 @@
         <v>-1636086.450372204</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12693,12 +12039,12 @@
         <v>-1606583.829772204</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12732,12 +12078,12 @@
         <v>-1606583.829772204</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>29</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12773,10 +12119,10 @@
       <c r="H318" t="n">
         <v>1</v>
       </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I318" t="n">
+        <v>29</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12810,12 +12156,10 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12849,12 +12193,10 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12888,12 +12230,10 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12927,12 +12267,10 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12966,12 +12304,10 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13005,12 +12341,10 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13047,9 +12381,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13086,9 +12418,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13125,9 +12455,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13164,9 +12492,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13200,12 +12526,12 @@
         <v>-1542955.686472204</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>29</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13239,12 +12565,12 @@
         <v>-1482355.686472204</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13281,9 +12607,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13320,9 +12644,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13359,9 +12681,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13398,9 +12718,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13437,9 +12755,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13473,12 +12789,12 @@
         <v>-1482900.838672204</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13515,9 +12831,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13551,12 +12865,12 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13593,9 +12907,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13629,12 +12941,12 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>29</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13668,12 +12980,12 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>29</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13707,12 +13019,12 @@
         <v>-1478511.214272204</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>29</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13746,12 +13058,12 @@
         <v>-1479649.696972204</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13787,10 +13099,10 @@
       <c r="H344" t="n">
         <v>1</v>
       </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I344" t="n">
+        <v>29</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13826,10 +13138,10 @@
       <c r="H345" t="n">
         <v>1</v>
       </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I345" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13865,10 +13177,10 @@
       <c r="H346" t="n">
         <v>1</v>
       </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I346" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13904,10 +13216,10 @@
       <c r="H347" t="n">
         <v>1</v>
       </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I347" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13943,10 +13255,10 @@
       <c r="H348" t="n">
         <v>1</v>
       </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I348" t="n">
+        <v>29</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13982,10 +13294,10 @@
       <c r="H349" t="n">
         <v>1</v>
       </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I349" t="n">
+        <v>29</v>
+      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14021,10 +13333,10 @@
       <c r="H350" t="n">
         <v>1</v>
       </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="I350" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14058,12 +13370,12 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14097,12 +13409,12 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14136,12 +13448,12 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14175,12 +13487,12 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14214,12 +13526,12 @@
         <v>-1470905.301672204</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14253,12 +13565,12 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14292,12 +13604,12 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14331,12 +13643,12 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14370,12 +13682,12 @@
         <v>-1421746.487172204</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14409,12 +13721,12 @@
         <v>-1380238.311772204</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14448,12 +13760,12 @@
         <v>-1380238.311772204</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14487,12 +13799,12 @@
         <v>-1380138.311772204</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14526,12 +13838,12 @@
         <v>-1380138.311772204</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14565,12 +13877,12 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14604,12 +13916,12 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14643,12 +13955,12 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14682,12 +13994,12 @@
         <v>-1364891.270972204</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>28.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14724,9 +14036,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14760,19 +14070,17 @@
         <v>-1373891.270972204</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L369" t="n">
-        <v>1.023070175438597</v>
+        <v>1</v>
       </c>
       <c r="M369" t="inlineStr"/>
     </row>
@@ -14803,7 +14111,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14836,7 +14148,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14869,7 +14185,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14902,7 +14222,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14935,7 +14259,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14968,7 +14296,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15001,7 +14333,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15034,7 +14370,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15067,7 +14407,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15100,7 +14444,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15133,7 +14481,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15166,7 +14518,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15199,7 +14555,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15232,7 +14592,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15261,11 +14625,15 @@
         <v>-1056304.257872204</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15294,11 +14662,15 @@
         <v>-389449.5910722041</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15327,11 +14699,15 @@
         <v>-222966.0209481117</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15360,11 +14736,15 @@
         <v>-230470.7325481117</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15393,11 +14773,15 @@
         <v>-230470.7325481117</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15426,11 +14810,15 @@
         <v>-128675.9873481117</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15459,11 +14847,15 @@
         <v>32249.60875188833</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15492,11 +14884,15 @@
         <v>-259606.3732481117</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15525,11 +14921,15 @@
         <v>-338203.9210481117</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15558,11 +14958,15 @@
         <v>-264589.7374481117</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15591,11 +14995,15 @@
         <v>-264589.7374481117</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15624,14 +15032,16 @@
         <v>-348704.4738481117</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="inlineStr"/>
     </row>
     <row r="396">
@@ -15657,7 +15067,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15690,7 +15100,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15723,7 +15133,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15756,7 +15166,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15789,7 +15199,7 @@
         <v>-385020.5259481117</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15822,7 +15232,7 @@
         <v>-385020.5259481117</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15855,7 +15265,7 @@
         <v>-328167.0862815543</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15866,6 +15276,6 @@
       <c r="M402" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-15 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>23789.79109999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1538862.1988</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1539819.767</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1539819.767</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1528545.6246</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1302245.9555</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1316778.183</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1316778.183</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,17 +2794,11 @@
         <v>-1316778.183</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2833,15 +2827,11 @@
         <v>-1316778.183</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2870,15 +2860,11 @@
         <v>-1316768.183</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2907,15 +2893,11 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2944,15 +2926,11 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2981,15 +2959,11 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3018,15 +2992,11 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3055,15 +3025,11 @@
         <v>-1273730.9092</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3092,15 +3058,11 @@
         <v>-1273730.9092</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3129,15 +3091,11 @@
         <v>-1273730.9092</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3166,15 +3124,11 @@
         <v>-1171958.2562</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3203,15 +3157,11 @@
         <v>-1215312.6438</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3240,15 +3190,11 @@
         <v>-1215851.278600001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3277,15 +3223,11 @@
         <v>-1213542.673200001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3314,15 +3256,11 @@
         <v>-1213542.673200001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3351,15 +3289,11 @@
         <v>-1224742.673200001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3388,15 +3322,11 @@
         <v>-1223430.673200001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3425,15 +3355,11 @@
         <v>-1195003.3661</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3462,17 +3388,11 @@
         <v>-1195003.3661</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>29.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3501,15 +3421,11 @@
         <v>-1198882.7907</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3538,15 +3454,11 @@
         <v>-1198882.7907</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3575,15 +3487,11 @@
         <v>-1198982.7907</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3612,17 +3520,11 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3651,17 +3553,11 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3690,15 +3586,11 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3727,15 +3619,11 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3764,17 +3652,11 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3803,17 +3685,11 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3842,17 +3718,11 @@
         <v>-1256461.524500001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3881,17 +3751,11 @@
         <v>-1256461.524500001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3920,17 +3784,11 @@
         <v>-1263772.524500001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3959,17 +3817,11 @@
         <v>-1305626.9105</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>28.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3998,17 +3850,11 @@
         <v>-1305626.9105</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>28.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4037,17 +3883,11 @@
         <v>-1405626.9105</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4076,17 +3916,11 @@
         <v>-1405616.9105</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4115,17 +3949,11 @@
         <v>-1405616.9105</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4154,17 +3982,11 @@
         <v>-1406398.058200001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4193,17 +4015,11 @@
         <v>-1406398.058200001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4232,17 +4048,11 @@
         <v>-1406398.058200001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4271,17 +4081,11 @@
         <v>-1460099.4889</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4310,17 +4114,11 @@
         <v>-1456819.329300001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4349,17 +4147,11 @@
         <v>-1456819.329300001</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4388,17 +4180,11 @@
         <v>-1448506.880000001</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4427,17 +4213,11 @@
         <v>-1448506.880000001</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4466,17 +4246,11 @@
         <v>-1448506.880000001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4505,17 +4279,11 @@
         <v>-1448506.880000001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4544,17 +4312,11 @@
         <v>-1458168.775800001</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4583,17 +4345,11 @@
         <v>-1458157.775800001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4622,17 +4378,11 @@
         <v>-1467833.525800001</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4661,17 +4411,11 @@
         <v>-1384550.407200001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4700,17 +4444,11 @@
         <v>-1308473.419400001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4739,17 +4477,11 @@
         <v>-1308473.419400001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4782,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4819,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4893,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4930,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4967,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5004,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5041,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5078,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5115,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5152,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5189,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5226,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5263,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5300,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5337,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5374,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5411,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5448,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5485,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5522,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5559,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5596,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5633,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5670,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5707,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5744,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5781,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5818,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5855,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5892,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5966,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6003,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6040,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6077,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6110,15 +5698,11 @@
         <v>-1085600.707072204</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6147,15 +5731,11 @@
         <v>-1085600.707072204</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6184,15 +5764,11 @@
         <v>-1086276.519972204</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6221,15 +5797,11 @@
         <v>-1058876.519972204</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6258,15 +5830,11 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6295,15 +5863,11 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6332,15 +5896,11 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6369,15 +5929,11 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6406,15 +5962,11 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6443,15 +5995,11 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6480,15 +6028,11 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6517,15 +6061,11 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6554,15 +6094,11 @@
         <v>-1049013.346972204</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6591,15 +6127,11 @@
         <v>-1045534.430172204</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6628,15 +6160,11 @@
         <v>-1019472.041472204</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6665,15 +6193,11 @@
         <v>-1020901.722872204</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6702,15 +6226,11 @@
         <v>-1241928.078172204</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6739,15 +6259,11 @@
         <v>-1241928.078172204</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6776,15 +6292,11 @@
         <v>-1275332.117372204</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6813,17 +6325,11 @@
         <v>-1270873.045772204</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6856,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6893,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6926,17 +6424,11 @@
         <v>-1460157.380472204</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6969,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7006,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7039,17 +6523,11 @@
         <v>-1426756.265772204</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7082,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7115,17 +6589,11 @@
         <v>-1466758.372072204</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7158,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7191,17 +6655,11 @@
         <v>-1467455.793172204</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7230,17 +6688,11 @@
         <v>-1466687.929872204</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7269,17 +6721,11 @@
         <v>-1466687.929872204</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7312,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7349,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7386,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7419,17 +6853,11 @@
         <v>-1598154.860672204</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7458,17 +6886,11 @@
         <v>-1598154.860672204</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7497,17 +6919,11 @@
         <v>-1598154.860672204</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7536,17 +6952,11 @@
         <v>-1598054.860672204</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7575,17 +6985,11 @@
         <v>-1598054.860672204</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7618,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7655,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7692,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7729,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7766,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7799,17 +7183,11 @@
         <v>-1586222.566072204</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7842,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7879,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7916,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7953,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7990,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8027,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8064,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8101,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8138,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8175,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8212,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8249,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8286,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8323,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8360,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8397,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8434,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8471,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8508,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8545,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8582,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8619,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8656,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8689,15 +7975,11 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8726,15 +8008,11 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8763,17 +8041,11 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8802,17 +8074,11 @@
         <v>-1744551.073072204</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8841,17 +8107,11 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8880,17 +8140,11 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8919,17 +8173,11 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8958,17 +8206,11 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8997,17 +8239,11 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9036,17 +8272,11 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9075,17 +8305,11 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9114,17 +8338,11 @@
         <v>-1664663.305872204</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9153,17 +8371,11 @@
         <v>-1664663.305872204</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9192,17 +8404,11 @@
         <v>-1668253.305872204</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9231,17 +8437,11 @@
         <v>-1668253.305872204</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9270,17 +8470,11 @@
         <v>-1596331.865972204</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9309,17 +8503,11 @@
         <v>-1596331.865972204</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9348,17 +8536,11 @@
         <v>-1642677.700672204</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9387,17 +8569,11 @@
         <v>-1645561.701172204</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9426,17 +8602,11 @@
         <v>-1644136.216672204</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>29</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9465,17 +8635,11 @@
         <v>-1626263.654872204</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9504,17 +8668,11 @@
         <v>-1629672.103472204</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9543,17 +8701,11 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9582,17 +8734,11 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9621,17 +8767,11 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9660,17 +8800,11 @@
         <v>-1616205.535072204</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9699,17 +8833,11 @@
         <v>-1616155.535072204</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9738,17 +8866,11 @@
         <v>-1596454.535072204</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9777,17 +8899,11 @@
         <v>-1596454.535072204</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9816,17 +8932,11 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9855,17 +8965,11 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9894,17 +8998,11 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9933,17 +9031,11 @@
         <v>-1530024.889172204</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9972,17 +9064,11 @@
         <v>-1535495.889072204</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10011,17 +9097,11 @@
         <v>-1571041.308172204</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10050,17 +9130,11 @@
         <v>-1541382.542672204</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10089,17 +9163,11 @@
         <v>-1541382.542672204</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10128,17 +9196,11 @@
         <v>-1545477.815172204</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10167,17 +9229,11 @@
         <v>-1563987.343672204</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10206,17 +9262,11 @@
         <v>-1547607.343672204</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10245,17 +9295,11 @@
         <v>-1552108.879672204</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10284,17 +9328,11 @@
         <v>-1552108.879672204</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10323,17 +9361,11 @@
         <v>-1550408.879672204</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10362,17 +9394,11 @@
         <v>-1551725.879672204</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10401,17 +9427,11 @@
         <v>-1537625.879672204</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10440,17 +9460,11 @@
         <v>-1602327.631972204</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10479,17 +9493,11 @@
         <v>-1598868.179772204</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10518,17 +9526,11 @@
         <v>-1598868.179772204</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10557,17 +9559,11 @@
         <v>-1598868.179772204</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10596,17 +9592,11 @@
         <v>-1630468.179772204</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10635,17 +9625,11 @@
         <v>-1629081.223172204</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10674,17 +9658,11 @@
         <v>-1629081.223172204</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10713,17 +9691,11 @@
         <v>-1695838.205372204</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10752,17 +9724,11 @@
         <v>-1695221.607972204</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10796,12 +9762,10 @@
       <c r="I284" t="n">
         <v>28.9</v>
       </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10835,10 +9799,12 @@
       <c r="I285" t="n">
         <v>28.8</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>28.9</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L285" t="n">
@@ -10874,10 +9840,12 @@
       <c r="I286" t="n">
         <v>29</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>28.9</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L286" t="n">
@@ -10908,17 +9876,11 @@
         <v>-1670157.201672204</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10947,17 +9909,11 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10986,17 +9942,11 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11025,17 +9975,11 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11064,17 +10008,11 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11103,17 +10041,11 @@
         <v>-1641020.112172204</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11142,17 +10074,11 @@
         <v>-1641020.112172204</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11181,17 +10107,11 @@
         <v>-1644572.675972204</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11220,17 +10140,11 @@
         <v>-1644572.675972204</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11259,17 +10173,11 @@
         <v>-1658388.852872204</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11298,17 +10206,11 @@
         <v>-1556388.852872204</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11337,17 +10239,11 @@
         <v>-1632671.872472204</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11376,17 +10272,11 @@
         <v>-1609569.872472204</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11415,17 +10305,11 @@
         <v>-1610202.740972204</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11459,12 +10343,10 @@
       <c r="I301" t="n">
         <v>28.7</v>
       </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11498,10 +10380,12 @@
       <c r="I302" t="n">
         <v>28.6</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>28.7</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L302" t="n">
@@ -11537,10 +10421,12 @@
       <c r="I303" t="n">
         <v>28.7</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>28.7</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L303" t="n">
@@ -11576,12 +10462,10 @@
       <c r="I304" t="n">
         <v>28.7</v>
       </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11615,10 +10499,12 @@
       <c r="I305" t="n">
         <v>28.6</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>28.7</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L305" t="n">
@@ -11654,10 +10540,12 @@
       <c r="I306" t="n">
         <v>28.7</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>28.7</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L306" t="n">
@@ -11693,12 +10581,10 @@
       <c r="I307" t="n">
         <v>28.7</v>
       </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11732,10 +10618,12 @@
       <c r="I308" t="n">
         <v>28.7</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>28.7</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L308" t="n">
@@ -11771,10 +10659,12 @@
       <c r="I309" t="n">
         <v>28.6</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>28.7</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L309" t="n">
@@ -11810,12 +10700,10 @@
       <c r="I310" t="n">
         <v>28.5</v>
       </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11849,10 +10737,12 @@
       <c r="I311" t="n">
         <v>28.7</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L311" t="n">
@@ -11888,10 +10778,12 @@
       <c r="I312" t="n">
         <v>28.7</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L312" t="n">
@@ -11927,12 +10819,10 @@
       <c r="I313" t="n">
         <v>28.6</v>
       </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11966,10 +10856,12 @@
       <c r="I314" t="n">
         <v>28.6</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L314" t="n">
@@ -12005,10 +10897,12 @@
       <c r="I315" t="n">
         <v>28.7</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>28.6</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L315" t="n">
@@ -12044,12 +10938,10 @@
       <c r="I316" t="n">
         <v>28.8</v>
       </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12078,15 +10970,15 @@
         <v>-1606583.829772204</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>29</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>28.8</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L317" t="n">
@@ -12117,15 +11009,15 @@
         <v>-1606583.829772204</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>29</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>28.8</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L318" t="n">
@@ -12160,11 +11052,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12197,11 +11085,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12234,11 +11118,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12271,11 +11151,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12308,11 +11184,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12345,11 +11217,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12382,11 +11250,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12419,11 +11283,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12456,11 +11316,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12493,11 +11349,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12526,17 +11378,11 @@
         <v>-1542955.686472204</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12565,17 +11411,11 @@
         <v>-1482355.686472204</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12608,11 +11448,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12645,11 +11481,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12682,11 +11514,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12719,11 +11547,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12756,11 +11580,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12789,17 +11609,11 @@
         <v>-1482900.838672204</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12832,11 +11646,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12865,17 +11675,11 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12908,11 +11712,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12941,17 +11741,11 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12980,17 +11774,11 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13019,17 +11807,11 @@
         <v>-1478511.214272204</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13058,17 +11840,11 @@
         <v>-1479649.696972204</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13097,17 +11873,11 @@
         <v>-1469849.696972204</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13136,17 +11906,11 @@
         <v>-1469849.696972204</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13175,17 +11939,11 @@
         <v>-1471364.301672204</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13214,17 +11972,11 @@
         <v>-1471264.301672204</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13253,17 +12005,11 @@
         <v>-1471264.301672204</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13292,17 +12038,11 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>29</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13331,17 +12071,11 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13370,17 +12104,11 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13409,17 +12137,11 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13448,17 +12170,11 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13487,17 +12203,11 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13526,17 +12236,11 @@
         <v>-1470905.301672204</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13565,17 +12269,11 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13604,17 +12302,11 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13643,17 +12335,11 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13682,17 +12368,11 @@
         <v>-1421746.487172204</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13721,17 +12401,11 @@
         <v>-1380238.311772204</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>29.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13760,17 +12434,11 @@
         <v>-1380238.311772204</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13799,17 +12467,11 @@
         <v>-1380138.311772204</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>29.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13838,17 +12500,11 @@
         <v>-1380138.311772204</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13877,17 +12533,11 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>29.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13916,17 +12566,11 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>29.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13955,17 +12599,11 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>29.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13994,17 +12632,11 @@
         <v>-1364891.270972204</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>29.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14033,15 +12665,11 @@
         <v>-1373991.270972204</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14070,15 +12698,11 @@
         <v>-1373891.270972204</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14107,15 +12731,11 @@
         <v>-1371962.016772204</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14144,15 +12764,11 @@
         <v>-1333939.711772204</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14181,15 +12797,11 @@
         <v>-1383552.799972204</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14218,15 +12830,11 @@
         <v>-1383552.799972204</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14255,15 +12863,11 @@
         <v>-1372539.323572204</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14292,15 +12896,11 @@
         <v>-1374457.647172204</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14329,15 +12929,11 @@
         <v>-1374457.647172204</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14366,15 +12962,11 @@
         <v>-1364457.647172204</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14403,15 +12995,11 @@
         <v>-1365924.435072204</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14440,15 +13028,11 @@
         <v>-1358292.552972204</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14477,15 +13061,11 @@
         <v>-1290295.885772204</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14514,15 +13094,11 @@
         <v>-1133785.124272204</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14555,11 +13131,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14592,11 +13164,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14629,11 +13197,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14666,11 +13230,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14703,11 +13263,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +13296,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14777,11 +13329,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14814,11 +13362,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14851,11 +13395,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14888,11 +13428,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14925,11 +13461,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14962,11 +13494,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14999,11 +13527,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15032,16 +13556,14 @@
         <v>-348704.4738481117</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
       <c r="M395" t="inlineStr"/>
     </row>
     <row r="396">
@@ -15067,7 +13589,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15100,7 +13622,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15133,7 +13655,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15166,7 +13688,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15199,7 +13721,7 @@
         <v>-385020.5259481117</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15232,7 +13754,7 @@
         <v>-385020.5259481117</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15265,7 +13787,7 @@
         <v>-328167.0862815543</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15276,6 +13798,6 @@
       <c r="M402" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-15 BackTest LOOM.xlsx
@@ -781,7 +781,7 @@
         <v>23789.79109999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1538862.1988</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1539819.767</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1539819.767</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1528545.6246</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1302245.9555</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1316778.183</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,10 +2761,14 @@
         <v>-1316778.183</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2794,11 +2798,19 @@
         <v>-1316778.183</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2839,19 @@
         <v>-1316778.183</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2880,19 @@
         <v>-1316768.183</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2921,17 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2960,17 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +2999,17 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3038,17 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3077,17 @@
         <v>-1273730.9092</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3116,17 @@
         <v>-1273730.9092</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3155,17 @@
         <v>-1273730.9092</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3194,17 @@
         <v>-1171958.2562</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3233,17 @@
         <v>-1215312.6438</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3272,17 @@
         <v>-1215851.278600001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3311,17 @@
         <v>-1213542.673200001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3350,17 @@
         <v>-1213542.673200001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3389,17 @@
         <v>-1224742.673200001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3428,17 @@
         <v>-1223430.673200001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3467,17 @@
         <v>-1195003.3661</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3506,17 @@
         <v>-1195003.3661</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3545,17 @@
         <v>-1198882.7907</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3584,17 @@
         <v>-1198882.7907</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3623,17 @@
         <v>-1198982.7907</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3662,17 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3701,17 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3740,17 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3779,17 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3818,17 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3857,17 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3896,17 @@
         <v>-1256461.524500001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3935,17 @@
         <v>-1256461.524500001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3974,17 @@
         <v>-1263772.524500001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4013,17 @@
         <v>-1305626.9105</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4052,17 @@
         <v>-1305626.9105</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4094,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4133,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4172,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4211,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4250,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4289,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4328,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4367,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4406,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4445,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4484,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4523,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4562,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4601,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4640,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4679,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4718,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4757,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4796,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4835,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4874,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4913,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4952,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4991,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5030,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5069,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5108,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5147,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5186,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5225,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5264,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5303,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5342,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5381,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5420,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5459,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5498,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5537,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5576,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5615,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5654,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5693,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5732,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5771,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5810,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5849,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5888,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5927,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5966,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6005,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6044,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6083,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6122,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6161,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6200,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +6236,17 @@
         <v>-1085600.707072204</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6275,17 @@
         <v>-1085600.707072204</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6314,17 @@
         <v>-1086276.519972204</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6353,17 @@
         <v>-1058876.519972204</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6392,17 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6431,17 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6470,17 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6509,17 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6548,17 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6587,17 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6626,17 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6665,17 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6704,17 @@
         <v>-1049013.346972204</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6743,17 @@
         <v>-1045534.430172204</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6782,17 @@
         <v>-1019472.041472204</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6821,17 @@
         <v>-1020901.722872204</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6860,17 @@
         <v>-1241928.078172204</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6899,17 @@
         <v>-1241928.078172204</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6938,17 @@
         <v>-1275332.117372204</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6980,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +7019,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +7058,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7097,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7136,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7175,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +7214,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7253,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +7292,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +7331,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7370,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7409,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7448,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7487,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7526,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7565,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7604,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7643,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7682,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7721,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7760,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7799,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7838,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7877,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7916,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7955,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7994,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +8033,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +8072,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +8111,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +8150,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +8189,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +8228,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +8267,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +8306,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +8345,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +8384,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8423,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8462,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8501,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8540,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8579,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8618,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +8657,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8696,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8735,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8774,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +8813,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8852,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +8891,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8927,17 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8966,17 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +9005,17 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +9044,19 @@
         <v>-1744551.073072204</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J233" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +9085,17 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +9124,19 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J235" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +9165,19 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J236" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +9206,17 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +9245,19 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J238" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +9286,19 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J239" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +9327,19 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J240" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +9368,19 @@
         <v>-1664663.305872204</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J241" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +9409,19 @@
         <v>-1664663.305872204</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J242" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +9450,19 @@
         <v>-1668253.305872204</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J243" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +9491,19 @@
         <v>-1668253.305872204</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +9532,19 @@
         <v>-1596331.865972204</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +9573,19 @@
         <v>-1596331.865972204</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J246" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +9614,19 @@
         <v>-1642677.700672204</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J247" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +9655,19 @@
         <v>-1645561.701172204</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +9696,19 @@
         <v>-1644136.216672204</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>29</v>
+      </c>
+      <c r="J249" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +9737,19 @@
         <v>-1626263.654872204</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +9778,19 @@
         <v>-1629672.103472204</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J251" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +9819,19 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +9860,19 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J253" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +9901,19 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J254" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +9942,19 @@
         <v>-1616205.535072204</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J255" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +9983,19 @@
         <v>-1616155.535072204</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +10024,19 @@
         <v>-1596454.535072204</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J257" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +10065,19 @@
         <v>-1596454.535072204</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J258" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +10106,19 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J259" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +10147,19 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J260" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +10188,19 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J261" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +10229,19 @@
         <v>-1530024.889172204</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J262" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +10270,19 @@
         <v>-1535495.889072204</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J263" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +10311,19 @@
         <v>-1571041.308172204</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J264" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +10352,19 @@
         <v>-1541382.542672204</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +10393,19 @@
         <v>-1541382.542672204</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J266" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +10434,19 @@
         <v>-1545477.815172204</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J267" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +10475,19 @@
         <v>-1563987.343672204</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +10516,19 @@
         <v>-1547607.343672204</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J269" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +10557,19 @@
         <v>-1552108.879672204</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J270" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +10598,19 @@
         <v>-1552108.879672204</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>29</v>
+      </c>
+      <c r="J271" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +10639,19 @@
         <v>-1550408.879672204</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>29</v>
+      </c>
+      <c r="J272" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +10680,19 @@
         <v>-1551725.879672204</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J273" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +10721,19 @@
         <v>-1537625.879672204</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +10762,19 @@
         <v>-1602327.631972204</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J275" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +10803,19 @@
         <v>-1598868.179772204</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>29</v>
+      </c>
+      <c r="J276" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +10844,19 @@
         <v>-1598868.179772204</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +10885,19 @@
         <v>-1598868.179772204</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +10926,19 @@
         <v>-1630468.179772204</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +10967,19 @@
         <v>-1629081.223172204</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J280" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +11008,19 @@
         <v>-1629081.223172204</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>29</v>
+      </c>
+      <c r="J281" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +11049,19 @@
         <v>-1695838.205372204</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>29</v>
+      </c>
+      <c r="J282" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +11090,19 @@
         <v>-1695221.607972204</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J283" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9763,9 +11137,13 @@
         <v>28.9</v>
       </c>
       <c r="J284" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K284" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9800,11 +11178,11 @@
         <v>28.8</v>
       </c>
       <c r="J285" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L285" t="n">
@@ -9841,11 +11219,11 @@
         <v>29</v>
       </c>
       <c r="J286" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L286" t="n">
@@ -9876,11 +11254,19 @@
         <v>-1670157.201672204</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9909,11 +11295,19 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J288" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9942,11 +11336,19 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>29</v>
+      </c>
+      <c r="J289" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9975,11 +11377,19 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>29</v>
+      </c>
+      <c r="J290" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10008,11 +11418,19 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>29</v>
+      </c>
+      <c r="J291" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10041,11 +11459,19 @@
         <v>-1641020.112172204</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>29</v>
+      </c>
+      <c r="J292" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10074,11 +11500,19 @@
         <v>-1641020.112172204</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J293" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10107,11 +11541,19 @@
         <v>-1644572.675972204</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10140,11 +11582,19 @@
         <v>-1644572.675972204</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>29</v>
+      </c>
+      <c r="J295" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10173,11 +11623,19 @@
         <v>-1658388.852872204</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>29</v>
+      </c>
+      <c r="J296" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10206,11 +11664,19 @@
         <v>-1556388.852872204</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J297" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10239,11 +11705,19 @@
         <v>-1632671.872472204</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10272,11 +11746,19 @@
         <v>-1609569.872472204</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J299" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10305,11 +11787,19 @@
         <v>-1610202.740972204</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J300" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10344,9 +11834,13 @@
         <v>28.7</v>
       </c>
       <c r="J301" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K301" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10381,11 +11875,11 @@
         <v>28.6</v>
       </c>
       <c r="J302" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L302" t="n">
@@ -10422,11 +11916,11 @@
         <v>28.7</v>
       </c>
       <c r="J303" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L303" t="n">
@@ -10463,9 +11957,13 @@
         <v>28.7</v>
       </c>
       <c r="J304" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K304" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10500,11 +11998,11 @@
         <v>28.6</v>
       </c>
       <c r="J305" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L305" t="n">
@@ -10541,11 +12039,11 @@
         <v>28.7</v>
       </c>
       <c r="J306" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L306" t="n">
@@ -10582,9 +12080,13 @@
         <v>28.7</v>
       </c>
       <c r="J307" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K307" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10619,11 +12121,11 @@
         <v>28.7</v>
       </c>
       <c r="J308" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L308" t="n">
@@ -10660,11 +12162,11 @@
         <v>28.6</v>
       </c>
       <c r="J309" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L309" t="n">
@@ -10701,9 +12203,13 @@
         <v>28.5</v>
       </c>
       <c r="J310" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K310" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10738,11 +12244,11 @@
         <v>28.7</v>
       </c>
       <c r="J311" t="n">
-        <v>28.5</v>
+        <v>29.2</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L311" t="n">
@@ -10779,11 +12285,11 @@
         <v>28.7</v>
       </c>
       <c r="J312" t="n">
-        <v>28.5</v>
+        <v>29.2</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L312" t="n">
@@ -10820,9 +12326,13 @@
         <v>28.6</v>
       </c>
       <c r="J313" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K313" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10857,11 +12367,11 @@
         <v>28.6</v>
       </c>
       <c r="J314" t="n">
-        <v>28.6</v>
+        <v>29.2</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L314" t="n">
@@ -10898,11 +12408,11 @@
         <v>28.7</v>
       </c>
       <c r="J315" t="n">
-        <v>28.6</v>
+        <v>29.2</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L315" t="n">
@@ -10939,9 +12449,13 @@
         <v>28.8</v>
       </c>
       <c r="J316" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K316" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10970,15 +12484,17 @@
         <v>-1606583.829772204</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>29</v>
+      </c>
       <c r="J317" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L317" t="n">
@@ -11009,15 +12525,17 @@
         <v>-1606583.829772204</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>29</v>
+      </c>
       <c r="J318" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L318" t="n">
@@ -11048,11 +12566,19 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>29</v>
+      </c>
+      <c r="J319" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11081,11 +12607,19 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J320" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11114,11 +12648,19 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J321" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11147,11 +12689,19 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J322" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11180,11 +12730,19 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11213,11 +12771,19 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J324" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11246,11 +12812,19 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J325" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11279,11 +12853,19 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J326" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11312,11 +12894,19 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J327" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11345,11 +12935,19 @@
         <v>-1553576.480772204</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11378,11 +12976,19 @@
         <v>-1542955.686472204</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>29</v>
+      </c>
+      <c r="J329" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11411,11 +13017,19 @@
         <v>-1482355.686472204</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J330" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11444,11 +13058,19 @@
         <v>-1482355.686472204</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J331" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11477,11 +13099,19 @@
         <v>-1482355.686472204</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J332" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11510,11 +13140,19 @@
         <v>-1482900.838672204</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J333" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11543,11 +13181,19 @@
         <v>-1482900.838672204</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J334" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11576,11 +13222,19 @@
         <v>-1482900.838672204</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J335" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11609,11 +13263,19 @@
         <v>-1482900.838672204</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J336" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11642,11 +13304,19 @@
         <v>-1482890.838672204</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J337" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11675,11 +13345,19 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J338" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11708,11 +13386,19 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>29</v>
+      </c>
+      <c r="J339" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11741,11 +13427,19 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>29</v>
+      </c>
+      <c r="J340" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11774,11 +13468,19 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>29</v>
+      </c>
+      <c r="J341" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11807,11 +13509,19 @@
         <v>-1478511.214272204</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>29</v>
+      </c>
+      <c r="J342" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11840,11 +13550,19 @@
         <v>-1479649.696972204</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J343" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11873,11 +13591,19 @@
         <v>-1469849.696972204</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>29</v>
+      </c>
+      <c r="J344" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11906,11 +13632,19 @@
         <v>-1469849.696972204</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J345" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11939,11 +13673,19 @@
         <v>-1471364.301672204</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J346" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11972,11 +13714,19 @@
         <v>-1471264.301672204</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J347" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12005,11 +13755,19 @@
         <v>-1471264.301672204</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>29</v>
+      </c>
+      <c r="J348" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12038,11 +13796,19 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>29</v>
+      </c>
+      <c r="J349" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12071,11 +13837,19 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J350" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12104,11 +13878,19 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J351" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12137,11 +13919,19 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J352" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12170,11 +13960,19 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J353" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12203,11 +14001,19 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J354" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12236,11 +14042,19 @@
         <v>-1470905.301672204</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J355" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12269,11 +14083,19 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J356" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12302,11 +14124,19 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J357" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12335,11 +14165,19 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J358" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12368,11 +14206,19 @@
         <v>-1421746.487172204</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J359" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12401,11 +14247,19 @@
         <v>-1380238.311772204</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J360" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12434,11 +14288,19 @@
         <v>-1380238.311772204</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J361" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12467,11 +14329,19 @@
         <v>-1380138.311772204</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J362" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12500,11 +14370,19 @@
         <v>-1380138.311772204</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J363" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12533,11 +14411,17 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12566,11 +14450,17 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12599,11 +14489,17 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12632,11 +14528,17 @@
         <v>-1364891.270972204</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12665,11 +14567,17 @@
         <v>-1373991.270972204</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12698,11 +14606,17 @@
         <v>-1373891.270972204</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12731,11 +14645,17 @@
         <v>-1371962.016772204</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12764,11 +14684,17 @@
         <v>-1333939.711772204</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12797,11 +14723,17 @@
         <v>-1383552.799972204</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12830,11 +14762,17 @@
         <v>-1383552.799972204</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12863,11 +14801,17 @@
         <v>-1372539.323572204</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12896,11 +14840,17 @@
         <v>-1374457.647172204</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12929,11 +14879,17 @@
         <v>-1374457.647172204</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12962,11 +14918,17 @@
         <v>-1364457.647172204</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12995,11 +14957,17 @@
         <v>-1365924.435072204</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13028,11 +14996,17 @@
         <v>-1358292.552972204</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13061,11 +15035,17 @@
         <v>-1290295.885772204</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13094,11 +15074,17 @@
         <v>-1133785.124272204</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13130,8 +15116,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13163,8 +15155,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13196,8 +15194,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13229,8 +15233,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13262,8 +15272,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13295,8 +15311,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13328,8 +15350,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13361,8 +15389,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13394,8 +15428,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13424,13 +15464,19 @@
         <v>-259606.3732481117</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L391" t="n">
-        <v>1</v>
+        <v>1.042945205479452</v>
       </c>
       <c r="M391" t="inlineStr"/>
     </row>
@@ -13457,7 +15503,7 @@
         <v>-338203.9210481117</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13490,7 +15536,7 @@
         <v>-264589.7374481117</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13523,7 +15569,7 @@
         <v>-264589.7374481117</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13556,7 +15602,7 @@
         <v>-348704.4738481117</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13589,7 +15635,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13622,7 +15668,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13655,7 +15701,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13688,7 +15734,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13721,7 +15767,7 @@
         <v>-385020.5259481117</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13754,7 +15800,7 @@
         <v>-385020.5259481117</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13787,7 +15833,7 @@
         <v>-328167.0862815543</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
